--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,151 +486,131 @@
         <v>33.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58916.6388</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13196.567</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.76666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>92.4853</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.79999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58916.6388</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13196.567</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33.76666666666666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>92.4853</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33.79999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,20 +638,18 @@
         <v>33.83333333333332</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -716,11 +690,7 @@
       <c r="K8" t="n">
         <v>33.9</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +724,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="K9" t="n">
         <v>33.9</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -791,20 +761,18 @@
         <v>34.03333333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>33.9</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -840,14 +808,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -881,14 +843,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -922,14 +878,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,14 +913,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +948,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +983,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1086,14 +1018,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1053,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1088,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1209,14 +1123,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1158,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1193,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1332,14 +1228,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1373,14 +1263,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1414,14 +1298,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1455,14 +1333,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1368,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1537,14 +1403,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1578,14 +1438,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1619,14 +1473,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1660,14 +1508,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1701,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1742,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1783,14 +1613,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1824,14 +1648,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1865,14 +1683,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1906,14 +1718,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1947,14 +1753,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1988,16 +1788,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1.003849557522124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2026,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="C2" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="D2" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>6720.1923</v>
       </c>
       <c r="G2" t="n">
-        <v>33.73333333333333</v>
+        <v>33.90166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -468,31 +468,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="E3" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="F3" t="n">
-        <v>13000</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>33.89666666666665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>33.8</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>33.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C4" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.88666666666665</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
         <v>33.8</v>
       </c>
-      <c r="D4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58916.6388</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="C5" t="n">
         <v>33.8</v>
@@ -547,27 +557,29 @@
         <v>33.8</v>
       </c>
       <c r="E5" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="F5" t="n">
-        <v>13196.567</v>
+        <v>58916.6388</v>
       </c>
       <c r="G5" t="n">
-        <v>33.76666666666666</v>
+        <v>33.88833333333331</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>33.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>33.8</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -589,26 +601,24 @@
         <v>33.8</v>
       </c>
       <c r="F6" t="n">
-        <v>92.4853</v>
+        <v>13196.567</v>
       </c>
       <c r="G6" t="n">
-        <v>33.79999999999999</v>
+        <v>33.88999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>33.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>33.8</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -620,22 +630,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="C7" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="D7" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="E7" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>92.4853</v>
       </c>
       <c r="G7" t="n">
-        <v>33.83333333333332</v>
+        <v>33.89166666666664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -649,7 +659,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -673,24 +683,26 @@
         <v>33.9</v>
       </c>
       <c r="F8" t="n">
-        <v>9980</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>33.86666666666665</v>
+        <v>33.89166666666664</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,38 +712,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="D9" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="E9" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>9980</v>
       </c>
       <c r="G9" t="n">
-        <v>33.96666666666665</v>
+        <v>33.89333333333331</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -755,10 +765,10 @@
         <v>34.1</v>
       </c>
       <c r="F10" t="n">
-        <v>11310.995</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>34.03333333333332</v>
+        <v>33.89833333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,11 +778,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -796,10 +806,10 @@
         <v>34.1</v>
       </c>
       <c r="F11" t="n">
-        <v>9409.840700000001</v>
+        <v>11310.995</v>
       </c>
       <c r="G11" t="n">
-        <v>34.09999999999999</v>
+        <v>33.90499999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -808,8 +818,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -819,22 +835,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>9409.840700000001</v>
       </c>
       <c r="G12" t="n">
-        <v>34.13333333333332</v>
+        <v>33.90166666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -843,8 +859,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -854,22 +876,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>34.09999999999999</v>
+        <v>33.90666666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -878,8 +900,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -901,10 +929,10 @@
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>4437.5294</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>34.06666666666666</v>
+        <v>33.90166666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -913,8 +941,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -936,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>9000</v>
+        <v>4437.5294</v>
       </c>
       <c r="G15" t="n">
-        <v>33.99999999999999</v>
+        <v>33.90333333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -948,8 +982,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -959,32 +999,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34</v>
+      </c>
+      <c r="E16" t="n">
+        <v>34</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.90499999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>33.8</v>
       </c>
-      <c r="C16" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>33.93333333333332</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -994,22 +1040,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>33.93333333333332</v>
+        <v>33.90333333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1018,8 +1064,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1041,10 +1093,10 @@
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>1039.3235</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>33.93333333333332</v>
+        <v>33.90499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1053,8 +1105,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1076,10 +1134,10 @@
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>1926.7058</v>
+        <v>1039.3235</v>
       </c>
       <c r="G19" t="n">
-        <v>33.99999999999999</v>
+        <v>33.90666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1088,8 +1146,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1175,10 @@
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>1983.6374</v>
+        <v>1926.7058</v>
       </c>
       <c r="G20" t="n">
-        <v>33.99999999999998</v>
+        <v>33.90333333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1123,8 +1187,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1134,22 +1204,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>2298.651</v>
+        <v>1983.6374</v>
       </c>
       <c r="G21" t="n">
-        <v>34.03333333333331</v>
+        <v>33.89999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1181,10 +1257,10 @@
         <v>34.1</v>
       </c>
       <c r="F22" t="n">
-        <v>12233.5451</v>
+        <v>2298.651</v>
       </c>
       <c r="G22" t="n">
-        <v>34.06666666666664</v>
+        <v>33.89999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1193,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1204,22 +1286,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C23" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D23" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E23" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F23" t="n">
-        <v>57.0175</v>
+        <v>12233.5451</v>
       </c>
       <c r="G23" t="n">
-        <v>34.1333333333333</v>
+        <v>33.89999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1228,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1239,22 +1327,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C24" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D24" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E24" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1290.3225</v>
+        <v>57.0175</v>
       </c>
       <c r="G24" t="n">
-        <v>34.1333333333333</v>
+        <v>33.90333333333331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1263,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1286,22 +1380,28 @@
         <v>34.1</v>
       </c>
       <c r="F25" t="n">
-        <v>23900.231</v>
+        <v>1290.3225</v>
       </c>
       <c r="G25" t="n">
-        <v>34.1333333333333</v>
+        <v>33.90666666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>1.003875739644971</v>
       </c>
     </row>
     <row r="26">
@@ -1321,10 +1421,10 @@
         <v>34.1</v>
       </c>
       <c r="F26" t="n">
-        <v>3571.299</v>
+        <v>23900.231</v>
       </c>
       <c r="G26" t="n">
-        <v>34.09999999999997</v>
+        <v>33.91166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,10 +1456,10 @@
         <v>34.1</v>
       </c>
       <c r="F27" t="n">
-        <v>34279.819</v>
+        <v>3571.299</v>
       </c>
       <c r="G27" t="n">
-        <v>34.09999999999997</v>
+        <v>33.91666666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1382,19 +1482,19 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="D28" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="E28" t="n">
         <v>34.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3334</v>
+        <v>34279.819</v>
       </c>
       <c r="G28" t="n">
-        <v>34.16666666666664</v>
+        <v>33.92166666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1417,25 +1517,25 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="D29" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="E29" t="n">
         <v>34.1</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>3334</v>
       </c>
       <c r="G29" t="n">
-        <v>34.16666666666664</v>
+        <v>33.92333333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1464,13 +1564,13 @@
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>34.16666666666664</v>
+        <v>33.92833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1484,28 +1584,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C31" t="n">
         <v>34.1</v>
       </c>
       <c r="D31" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E31" t="n">
         <v>34.1</v>
       </c>
       <c r="F31" t="n">
-        <v>20018</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>34.09999999999997</v>
+        <v>33.92666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1519,28 +1619,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C32" t="n">
         <v>34.1</v>
       </c>
       <c r="D32" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E32" t="n">
         <v>34.1</v>
       </c>
       <c r="F32" t="n">
-        <v>34</v>
+        <v>20018</v>
       </c>
       <c r="G32" t="n">
-        <v>34.09999999999997</v>
+        <v>33.92833333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1566,10 +1666,10 @@
         <v>34.1</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G33" t="n">
-        <v>34.09999999999997</v>
+        <v>33.92833333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1601,10 +1701,10 @@
         <v>34.1</v>
       </c>
       <c r="F34" t="n">
-        <v>37.9684</v>
+        <v>24</v>
       </c>
       <c r="G34" t="n">
-        <v>34.09999999999997</v>
+        <v>33.92666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1624,22 +1724,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D35" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E35" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F35" t="n">
-        <v>373</v>
+        <v>37.9684</v>
       </c>
       <c r="G35" t="n">
-        <v>34.13333333333332</v>
+        <v>33.92499999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1659,22 +1759,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="E36" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F36" t="n">
-        <v>12900</v>
+        <v>373</v>
       </c>
       <c r="G36" t="n">
-        <v>34.19999999999998</v>
+        <v>33.92499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1697,19 +1797,19 @@
         <v>34.3</v>
       </c>
       <c r="C37" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="D37" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="E37" t="n">
         <v>34.3</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>12900</v>
       </c>
       <c r="G37" t="n">
-        <v>34.36666666666665</v>
+        <v>33.92666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1729,22 +1829,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C38" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="D38" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="E38" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36666666666665</v>
+        <v>33.93666666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1776,10 +1876,10 @@
         <v>34.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2155.4861</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>34.33333333333332</v>
+        <v>33.93833333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1799,22 +1899,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C40" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D40" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E40" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F40" t="n">
-        <v>12233.5451</v>
+        <v>2155.4861</v>
       </c>
       <c r="G40" t="n">
-        <v>34.16666666666666</v>
+        <v>33.93833333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1834,22 +1934,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C41" t="n">
         <v>34.1</v>
       </c>
       <c r="D41" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E41" t="n">
         <v>34.1</v>
       </c>
       <c r="F41" t="n">
-        <v>211161.7998</v>
+        <v>12233.5451</v>
       </c>
       <c r="G41" t="n">
-        <v>34.13333333333332</v>
+        <v>33.94333333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1869,22 +1969,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C42" t="n">
         <v>34.1</v>
       </c>
       <c r="D42" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E42" t="n">
         <v>34.1</v>
       </c>
       <c r="F42" t="n">
-        <v>5705.1453</v>
+        <v>211161.7998</v>
       </c>
       <c r="G42" t="n">
-        <v>34.09999999999999</v>
+        <v>33.94999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1904,22 +2004,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C43" t="n">
         <v>34.1</v>
       </c>
       <c r="D43" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E43" t="n">
         <v>34.1</v>
       </c>
       <c r="F43" t="n">
-        <v>1605.0743</v>
+        <v>5705.1453</v>
       </c>
       <c r="G43" t="n">
-        <v>34.09999999999999</v>
+        <v>33.95666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,22 +2039,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C44" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D44" t="n">
         <v>34.4</v>
       </c>
       <c r="E44" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>1605.0743</v>
       </c>
       <c r="G44" t="n">
-        <v>34.2</v>
+        <v>33.96333333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,22 +2074,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C45" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D45" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E45" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F45" t="n">
-        <v>1460.9621</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>34.2</v>
+        <v>33.97166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2021,10 +2121,10 @@
         <v>34.1</v>
       </c>
       <c r="F46" t="n">
-        <v>48.6893</v>
+        <v>1460.9621</v>
       </c>
       <c r="G46" t="n">
-        <v>34.2</v>
+        <v>33.97499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2044,22 +2144,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C47" t="n">
         <v>34.1</v>
       </c>
       <c r="D47" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E47" t="n">
         <v>34.1</v>
       </c>
       <c r="F47" t="n">
-        <v>7261.6902</v>
+        <v>48.6893</v>
       </c>
       <c r="G47" t="n">
-        <v>34.09999999999999</v>
+        <v>33.98333333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,19 +2182,19 @@
         <v>34.4</v>
       </c>
       <c r="C48" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D48" t="n">
         <v>34.4</v>
       </c>
       <c r="E48" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>7261.6902</v>
       </c>
       <c r="G48" t="n">
-        <v>34.2</v>
+        <v>33.98666666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2114,22 +2214,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C49" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D49" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E49" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F49" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>34.2</v>
+        <v>33.99999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2149,22 +2249,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C50" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D50" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E50" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" t="n">
-        <v>34.3</v>
+        <v>34.00333333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2187,19 +2287,19 @@
         <v>34.4</v>
       </c>
       <c r="C51" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D51" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E51" t="n">
         <v>34.4</v>
       </c>
       <c r="F51" t="n">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n">
-        <v>34.33333333333334</v>
+        <v>34.01499999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,7 +2319,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C52" t="n">
         <v>34.5</v>
@@ -2228,13 +2328,13 @@
         <v>34.5</v>
       </c>
       <c r="E52" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F52" t="n">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="G52" t="n">
-        <v>34.46666666666667</v>
+        <v>34.02666666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2254,22 +2354,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C53" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E53" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F53" t="n">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="G53" t="n">
-        <v>34.46666666666667</v>
+        <v>34.03999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2301,10 +2401,10 @@
         <v>34.4</v>
       </c>
       <c r="F54" t="n">
-        <v>50000</v>
+        <v>188</v>
       </c>
       <c r="G54" t="n">
-        <v>34.43333333333334</v>
+        <v>34.05166666666664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,10 +2436,10 @@
         <v>34.4</v>
       </c>
       <c r="F55" t="n">
-        <v>137782.1153</v>
+        <v>50000</v>
       </c>
       <c r="G55" t="n">
-        <v>34.40000000000001</v>
+        <v>34.0633333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2359,22 +2459,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C56" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D56" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E56" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>137782.1153</v>
       </c>
       <c r="G56" t="n">
-        <v>34.43333333333334</v>
+        <v>34.07666666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2394,22 +2494,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C57" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D57" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E57" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>34.43333333333334</v>
+        <v>34.09166666666663</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2432,19 +2532,19 @@
         <v>34.4</v>
       </c>
       <c r="C58" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D58" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E58" t="n">
         <v>34.4</v>
       </c>
       <c r="F58" t="n">
-        <v>12029.869</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n">
-        <v>34.46666666666667</v>
+        <v>34.1033333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2467,19 +2567,19 @@
         <v>34.4</v>
       </c>
       <c r="C59" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D59" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E59" t="n">
         <v>34.4</v>
       </c>
       <c r="F59" t="n">
-        <v>1722</v>
+        <v>12029.869</v>
       </c>
       <c r="G59" t="n">
-        <v>34.43333333333334</v>
+        <v>34.11499999999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2499,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C60" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D60" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E60" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F60" t="n">
-        <v>322.0551</v>
+        <v>1722</v>
       </c>
       <c r="G60" t="n">
-        <v>34.46666666666667</v>
+        <v>34.12666666666663</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2546,10 +2646,10 @@
         <v>34.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4107</v>
+        <v>322.0551</v>
       </c>
       <c r="G61" t="n">
-        <v>34.46666666666667</v>
+        <v>34.1433333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2569,22 +2669,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C62" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D62" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E62" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2920</v>
+        <v>4107</v>
       </c>
       <c r="G62" t="n">
-        <v>34.53333333333333</v>
+        <v>34.15499999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2604,22 +2704,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C63" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D63" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E63" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F63" t="n">
-        <v>14.9996</v>
+        <v>2920</v>
       </c>
       <c r="G63" t="n">
-        <v>34.53333333333333</v>
+        <v>34.16666666666662</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2639,22 +2739,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C64" t="n">
         <v>34.5</v>
       </c>
       <c r="D64" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E64" t="n">
         <v>34.5</v>
       </c>
       <c r="F64" t="n">
-        <v>45.2598</v>
+        <v>14.9996</v>
       </c>
       <c r="G64" t="n">
-        <v>34.53333333333333</v>
+        <v>34.17999999999996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2674,22 +2774,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C65" t="n">
         <v>34.5</v>
       </c>
       <c r="D65" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E65" t="n">
         <v>34.5</v>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>45.2598</v>
       </c>
       <c r="G65" t="n">
-        <v>34.5</v>
+        <v>34.19166666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2709,22 +2809,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G66" t="n">
-        <v>34.53333333333333</v>
+        <v>34.20333333333328</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2744,22 +2844,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C67" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D67" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E67" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F67" t="n">
-        <v>17.889</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>34.53333333333333</v>
+        <v>34.21666666666661</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2779,22 +2879,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C68" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D68" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E68" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>17.889</v>
       </c>
       <c r="G68" t="n">
-        <v>34.56666666666666</v>
+        <v>34.22666666666661</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2814,22 +2914,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C69" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D69" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E69" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F69" t="n">
-        <v>29.996</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>34.53333333333333</v>
+        <v>34.23833333333327</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2849,22 +2949,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C70" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D70" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E70" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>29.996</v>
       </c>
       <c r="G70" t="n">
-        <v>34.56666666666666</v>
+        <v>34.24499999999994</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2884,22 +2984,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C71" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D71" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E71" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F71" t="n">
-        <v>17.9965</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>34.53333333333333</v>
+        <v>34.25333333333328</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2931,10 +3031,10 @@
         <v>34.5</v>
       </c>
       <c r="F72" t="n">
-        <v>16.9986</v>
+        <v>17.9965</v>
       </c>
       <c r="G72" t="n">
-        <v>34.53333333333333</v>
+        <v>34.25999999999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2957,19 +3057,19 @@
         <v>34.5</v>
       </c>
       <c r="C73" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D73" t="n">
         <v>34.5</v>
       </c>
       <c r="E73" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F73" t="n">
-        <v>35371.4521</v>
+        <v>16.9986</v>
       </c>
       <c r="G73" t="n">
-        <v>34.46666666666667</v>
+        <v>34.26499999999995</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2992,19 +3092,19 @@
         <v>34.5</v>
       </c>
       <c r="C74" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D74" t="n">
         <v>34.5</v>
       </c>
       <c r="E74" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F74" t="n">
-        <v>399.9588</v>
+        <v>35371.4521</v>
       </c>
       <c r="G74" t="n">
-        <v>34.46666666666667</v>
+        <v>34.27166666666662</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3036,10 +3136,10 @@
         <v>34.5</v>
       </c>
       <c r="F75" t="n">
-        <v>25.6693</v>
+        <v>399.9588</v>
       </c>
       <c r="G75" t="n">
-        <v>34.46666666666667</v>
+        <v>34.27999999999995</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3071,10 +3171,10 @@
         <v>34.5</v>
       </c>
       <c r="F76" t="n">
-        <v>161.9661</v>
+        <v>25.6693</v>
       </c>
       <c r="G76" t="n">
-        <v>34.5</v>
+        <v>34.28833333333328</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3094,22 +3194,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C77" t="n">
         <v>34.5</v>
       </c>
       <c r="D77" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E77" t="n">
         <v>34.5</v>
       </c>
       <c r="F77" t="n">
-        <v>149.9963</v>
+        <v>161.9661</v>
       </c>
       <c r="G77" t="n">
-        <v>34.5</v>
+        <v>34.29999999999995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3129,22 +3229,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C78" t="n">
         <v>34.5</v>
       </c>
       <c r="D78" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E78" t="n">
         <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>114.7745</v>
+        <v>149.9963</v>
       </c>
       <c r="G78" t="n">
-        <v>34.5</v>
+        <v>34.30833333333328</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3164,22 +3264,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C79" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D79" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E79" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F79" t="n">
-        <v>475</v>
+        <v>114.7745</v>
       </c>
       <c r="G79" t="n">
-        <v>34.53333333333333</v>
+        <v>34.31666666666661</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3199,22 +3299,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C80" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D80" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E80" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F80" t="n">
-        <v>1245.963</v>
+        <v>475</v>
       </c>
       <c r="G80" t="n">
-        <v>34.53333333333333</v>
+        <v>34.32666666666661</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3246,10 +3346,10 @@
         <v>34.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1248.9963</v>
+        <v>1245.963</v>
       </c>
       <c r="G81" t="n">
-        <v>34.53333333333333</v>
+        <v>34.33499999999994</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3275,16 +3375,16 @@
         <v>34.5</v>
       </c>
       <c r="D82" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E82" t="n">
         <v>34.5</v>
       </c>
       <c r="F82" t="n">
-        <v>41.62</v>
+        <v>1248.9963</v>
       </c>
       <c r="G82" t="n">
-        <v>34.5</v>
+        <v>34.34166666666661</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3304,7 +3404,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C83" t="n">
         <v>34.5</v>
@@ -3316,10 +3416,10 @@
         <v>34.5</v>
       </c>
       <c r="F83" t="n">
-        <v>174.808</v>
+        <v>41.62</v>
       </c>
       <c r="G83" t="n">
-        <v>34.5</v>
+        <v>34.34833333333328</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3342,7 +3442,7 @@
         <v>34.6</v>
       </c>
       <c r="C84" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
         <v>34.6</v>
@@ -3351,10 +3451,10 @@
         <v>34.5</v>
       </c>
       <c r="F84" t="n">
-        <v>60</v>
+        <v>174.808</v>
       </c>
       <c r="G84" t="n">
-        <v>34.53333333333333</v>
+        <v>34.35333333333328</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3374,22 +3474,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C85" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D85" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E85" t="n">
         <v>34.5</v>
       </c>
       <c r="F85" t="n">
-        <v>425</v>
+        <v>60</v>
       </c>
       <c r="G85" t="n">
-        <v>34.53333333333333</v>
+        <v>34.36166666666661</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3421,10 +3521,10 @@
         <v>34.5</v>
       </c>
       <c r="F86" t="n">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="G86" t="n">
-        <v>34.53333333333333</v>
+        <v>34.36833333333329</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3444,22 +3544,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C87" t="n">
         <v>34.5</v>
       </c>
       <c r="D87" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E87" t="n">
         <v>34.5</v>
       </c>
       <c r="F87" t="n">
-        <v>214.96</v>
+        <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>34.5</v>
+        <v>34.37499999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,22 +3579,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C88" t="n">
         <v>34.5</v>
       </c>
       <c r="D88" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E88" t="n">
         <v>34.5</v>
       </c>
       <c r="F88" t="n">
-        <v>178.998</v>
+        <v>214.96</v>
       </c>
       <c r="G88" t="n">
-        <v>34.5</v>
+        <v>34.38166666666663</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3526,10 +3626,10 @@
         <v>34.5</v>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>178.998</v>
       </c>
       <c r="G89" t="n">
-        <v>34.5</v>
+        <v>34.38499999999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3561,10 +3661,10 @@
         <v>34.5</v>
       </c>
       <c r="F90" t="n">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>34.5</v>
+        <v>34.39166666666662</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3596,10 +3696,10 @@
         <v>34.5</v>
       </c>
       <c r="F91" t="n">
-        <v>37</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>34.5</v>
+        <v>34.39833333333329</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3631,10 +3731,10 @@
         <v>34.5</v>
       </c>
       <c r="F92" t="n">
-        <v>32.6666</v>
+        <v>37</v>
       </c>
       <c r="G92" t="n">
-        <v>34.5</v>
+        <v>34.40499999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3666,10 +3766,10 @@
         <v>34.5</v>
       </c>
       <c r="F93" t="n">
-        <v>194.8577</v>
+        <v>32.6666</v>
       </c>
       <c r="G93" t="n">
-        <v>34.5</v>
+        <v>34.41166666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3701,10 +3801,10 @@
         <v>34.5</v>
       </c>
       <c r="F94" t="n">
-        <v>1581.06</v>
+        <v>194.8577</v>
       </c>
       <c r="G94" t="n">
-        <v>34.5</v>
+        <v>34.41833333333329</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3736,10 +3836,10 @@
         <v>34.5</v>
       </c>
       <c r="F95" t="n">
-        <v>82.8969</v>
+        <v>1581.06</v>
       </c>
       <c r="G95" t="n">
-        <v>34.5</v>
+        <v>34.42499999999996</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3771,10 +3871,10 @@
         <v>34.5</v>
       </c>
       <c r="F96" t="n">
-        <v>82.89190000000001</v>
+        <v>82.8969</v>
       </c>
       <c r="G96" t="n">
-        <v>34.5</v>
+        <v>34.42999999999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3806,10 +3906,10 @@
         <v>34.5</v>
       </c>
       <c r="F97" t="n">
-        <v>26.6259</v>
+        <v>82.89190000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>34.5</v>
+        <v>34.43333333333329</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3841,10 +3941,10 @@
         <v>34.5</v>
       </c>
       <c r="F98" t="n">
-        <v>30</v>
+        <v>26.6259</v>
       </c>
       <c r="G98" t="n">
-        <v>34.5</v>
+        <v>34.43166666666663</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3870,16 +3970,16 @@
         <v>34.5</v>
       </c>
       <c r="D99" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E99" t="n">
         <v>34.5</v>
       </c>
       <c r="F99" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>34.5</v>
+        <v>34.43666666666663</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3899,22 +3999,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D100" t="n">
         <v>34.6</v>
       </c>
-      <c r="C100" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.8</v>
-      </c>
       <c r="E100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G100" t="n">
-        <v>34.6</v>
+        <v>34.44166666666663</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3937,19 +4037,19 @@
         <v>34.6</v>
       </c>
       <c r="C101" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D101" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E101" t="n">
         <v>34.6</v>
       </c>
-      <c r="E101" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F101" t="n">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>34.6</v>
+        <v>34.4533333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3969,22 +4069,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C102" t="n">
         <v>34.5</v>
       </c>
       <c r="D102" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E102" t="n">
         <v>34.5</v>
       </c>
       <c r="F102" t="n">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>34.6</v>
+        <v>34.45999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4016,10 +4116,10 @@
         <v>34.5</v>
       </c>
       <c r="F103" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G103" t="n">
-        <v>34.50000000000001</v>
+        <v>34.46666666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4051,10 +4151,10 @@
         <v>34.5</v>
       </c>
       <c r="F104" t="n">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G104" t="n">
-        <v>34.5</v>
+        <v>34.47333333333331</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4086,10 +4186,10 @@
         <v>34.5</v>
       </c>
       <c r="F105" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="G105" t="n">
-        <v>34.5</v>
+        <v>34.47499999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4121,10 +4221,10 @@
         <v>34.5</v>
       </c>
       <c r="F106" t="n">
-        <v>1410.9986</v>
+        <v>19</v>
       </c>
       <c r="G106" t="n">
-        <v>34.5</v>
+        <v>34.48166666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4156,10 +4256,10 @@
         <v>34.5</v>
       </c>
       <c r="F107" t="n">
-        <v>114</v>
+        <v>1410.9986</v>
       </c>
       <c r="G107" t="n">
-        <v>34.5</v>
+        <v>34.48833333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4191,10 +4291,10 @@
         <v>34.5</v>
       </c>
       <c r="F108" t="n">
-        <v>123.1104</v>
+        <v>114</v>
       </c>
       <c r="G108" t="n">
-        <v>34.5</v>
+        <v>34.49499999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4226,10 +4326,10 @@
         <v>34.5</v>
       </c>
       <c r="F109" t="n">
-        <v>43.6029</v>
+        <v>123.1104</v>
       </c>
       <c r="G109" t="n">
-        <v>34.5</v>
+        <v>34.49666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4261,10 +4361,10 @@
         <v>34.5</v>
       </c>
       <c r="F110" t="n">
-        <v>3471.0774</v>
+        <v>43.6029</v>
       </c>
       <c r="G110" t="n">
-        <v>34.5</v>
+        <v>34.50333333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4287,19 +4387,19 @@
         <v>34.5</v>
       </c>
       <c r="C111" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D111" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E111" t="n">
         <v>34.5</v>
       </c>
       <c r="F111" t="n">
-        <v>34.657</v>
+        <v>3471.0774</v>
       </c>
       <c r="G111" t="n">
-        <v>34.53333333333333</v>
+        <v>34.50499999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4322,19 +4422,19 @@
         <v>34.5</v>
       </c>
       <c r="C112" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D112" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E112" t="n">
         <v>34.5</v>
       </c>
       <c r="F112" t="n">
-        <v>46.657</v>
+        <v>34.657</v>
       </c>
       <c r="G112" t="n">
-        <v>34.53333333333333</v>
+        <v>34.50666666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4366,10 +4466,10 @@
         <v>34.5</v>
       </c>
       <c r="F113" t="n">
-        <v>31.8285</v>
+        <v>46.657</v>
       </c>
       <c r="G113" t="n">
-        <v>34.53333333333333</v>
+        <v>34.50666666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4401,10 +4501,10 @@
         <v>34.5</v>
       </c>
       <c r="F114" t="n">
-        <v>11.8285</v>
+        <v>31.8285</v>
       </c>
       <c r="G114" t="n">
-        <v>34.5</v>
+        <v>34.50833333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4419,6 +4519,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11.8285</v>
+      </c>
+      <c r="G115" t="n">
+        <v>34.50999999999998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6720.1923</v>
       </c>
       <c r="G2" t="n">
+        <v>33.71333333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>33.90166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>33.71333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>33.89666666666665</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>33.8</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,24 +533,27 @@
         <v>13000</v>
       </c>
       <c r="G4" t="n">
+        <v>33.71999999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>33.88666666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,24 +577,29 @@
         <v>58916.6388</v>
       </c>
       <c r="G5" t="n">
+        <v>33.71333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>33.88833333333331</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,24 +623,29 @@
         <v>13196.567</v>
       </c>
       <c r="G6" t="n">
+        <v>33.71999999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>33.88999999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="n">
         <v>33.8</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,24 +669,29 @@
         <v>92.4853</v>
       </c>
       <c r="G7" t="n">
+        <v>33.71999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>33.89166666666664</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="n">
         <v>33.8</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,24 +715,29 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>33.73333333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>33.89166666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
         <v>33.8</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -727,24 +761,29 @@
         <v>9980</v>
       </c>
       <c r="G9" t="n">
+        <v>33.74666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>33.89333333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -768,24 +807,27 @@
         <v>18</v>
       </c>
       <c r="G10" t="n">
+        <v>33.77333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>33.89833333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -809,24 +851,27 @@
         <v>11310.995</v>
       </c>
       <c r="G11" t="n">
+        <v>33.80666666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>33.90499999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,24 +895,27 @@
         <v>9409.840700000001</v>
       </c>
       <c r="G12" t="n">
+        <v>33.83999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>33.90166666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,24 +939,27 @@
         <v>18</v>
       </c>
       <c r="G13" t="n">
+        <v>33.87333333333332</v>
+      </c>
+      <c r="H13" t="n">
         <v>33.90666666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,24 +983,27 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
+        <v>33.88666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>33.90166666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,24 +1027,27 @@
         <v>4437.5294</v>
       </c>
       <c r="G15" t="n">
+        <v>33.90666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>33.90333333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,24 +1071,27 @@
         <v>9000</v>
       </c>
       <c r="G16" t="n">
+        <v>33.93999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>33.90499999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,24 +1115,27 @@
         <v>5000</v>
       </c>
       <c r="G17" t="n">
+        <v>33.93999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>33.90333333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1159,29 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>33.94666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>33.90499999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
         <v>33.8</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1137,24 +1205,29 @@
         <v>1039.3235</v>
       </c>
       <c r="G19" t="n">
+        <v>33.96666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>33.90666666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+        <v>34</v>
+      </c>
+      <c r="L19" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,24 +1251,29 @@
         <v>1926.7058</v>
       </c>
       <c r="G20" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="H20" t="n">
         <v>33.90333333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>34</v>
+      </c>
+      <c r="L20" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,24 +1297,27 @@
         <v>1983.6374</v>
       </c>
       <c r="G21" t="n">
+        <v>33.99333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>33.89999999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1260,24 +1341,29 @@
         <v>2298.651</v>
       </c>
       <c r="G22" t="n">
+        <v>34.01333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>33.89999999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>34</v>
+      </c>
+      <c r="L22" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1301,24 +1387,29 @@
         <v>12233.5451</v>
       </c>
       <c r="G23" t="n">
+        <v>34.02666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>33.89999999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,24 +1433,27 @@
         <v>57.0175</v>
       </c>
       <c r="G24" t="n">
+        <v>34.04666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>33.90333333333331</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1383,25 +1477,28 @@
         <v>1290.3225</v>
       </c>
       <c r="G25" t="n">
+        <v>34.04666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>33.90666666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1.003875739644971</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1424,18 +1521,27 @@
         <v>23900.231</v>
       </c>
       <c r="G26" t="n">
+        <v>34.04666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>33.91166666666665</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1459,18 +1565,27 @@
         <v>3571.299</v>
       </c>
       <c r="G27" t="n">
+        <v>34.04666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>33.91666666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1494,18 +1609,27 @@
         <v>34279.819</v>
       </c>
       <c r="G28" t="n">
+        <v>34.04000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>33.92166666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,18 +1653,27 @@
         <v>3334</v>
       </c>
       <c r="G29" t="n">
+        <v>34.06000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>33.92333333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1564,18 +1697,27 @@
         <v>15</v>
       </c>
       <c r="G30" t="n">
+        <v>34.06666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>33.92833333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1599,18 +1741,27 @@
         <v>15</v>
       </c>
       <c r="G31" t="n">
+        <v>34.07333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>33.92666666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,18 +1785,27 @@
         <v>20018</v>
       </c>
       <c r="G32" t="n">
+        <v>34.09333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>33.92833333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1669,18 +1829,27 @@
         <v>34</v>
       </c>
       <c r="G33" t="n">
+        <v>34.10000000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>33.92833333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,18 +1873,27 @@
         <v>24</v>
       </c>
       <c r="G34" t="n">
+        <v>34.10666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>33.92666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1739,18 +1917,27 @@
         <v>37.9684</v>
       </c>
       <c r="G35" t="n">
+        <v>34.11333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>33.92499999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,18 +1961,27 @@
         <v>373</v>
       </c>
       <c r="G36" t="n">
+        <v>34.12666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>33.92499999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,18 +2005,27 @@
         <v>12900</v>
       </c>
       <c r="G37" t="n">
+        <v>34.14000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>33.92666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,18 +2049,27 @@
         <v>100</v>
       </c>
       <c r="G38" t="n">
+        <v>34.17333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>33.93666666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,18 +2093,27 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
+        <v>34.17333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>33.93833333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,18 +2137,27 @@
         <v>2155.4861</v>
       </c>
       <c r="G40" t="n">
+        <v>34.18000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>33.93833333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,18 +2181,27 @@
         <v>12233.5451</v>
       </c>
       <c r="G41" t="n">
+        <v>34.18000000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>33.94333333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1984,18 +2225,27 @@
         <v>211161.7998</v>
       </c>
       <c r="G42" t="n">
+        <v>34.18000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>33.94999999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2019,18 +2269,27 @@
         <v>5705.1453</v>
       </c>
       <c r="G43" t="n">
+        <v>34.18000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>33.95666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,18 +2313,27 @@
         <v>1605.0743</v>
       </c>
       <c r="G44" t="n">
+        <v>34.16666666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>33.96333333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2089,18 +2357,27 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
+        <v>34.18666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>33.97166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,18 +2401,27 @@
         <v>1460.9621</v>
       </c>
       <c r="G46" t="n">
+        <v>34.18666666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>33.97499999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2159,18 +2445,27 @@
         <v>48.6893</v>
       </c>
       <c r="G47" t="n">
+        <v>34.18666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>33.98333333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,18 +2489,27 @@
         <v>7261.6902</v>
       </c>
       <c r="G48" t="n">
+        <v>34.18666666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>33.98666666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2229,18 +2533,27 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
+        <v>34.20666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>33.99999999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,18 +2577,27 @@
         <v>19</v>
       </c>
       <c r="G50" t="n">
+        <v>34.20666666666668</v>
+      </c>
+      <c r="H50" t="n">
         <v>34.00333333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2299,18 +2621,27 @@
         <v>18</v>
       </c>
       <c r="G51" t="n">
+        <v>34.22000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>34.01499999999998</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,18 +2665,27 @@
         <v>128</v>
       </c>
       <c r="G52" t="n">
+        <v>34.23333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>34.02666666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2369,18 +2709,27 @@
         <v>28</v>
       </c>
       <c r="G53" t="n">
+        <v>34.22666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>34.03999999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,18 +2753,27 @@
         <v>188</v>
       </c>
       <c r="G54" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="H54" t="n">
         <v>34.05166666666664</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,18 +2797,27 @@
         <v>50000</v>
       </c>
       <c r="G55" t="n">
+        <v>34.25333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>34.0633333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,18 +2841,27 @@
         <v>137782.1153</v>
       </c>
       <c r="G56" t="n">
+        <v>34.27333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>34.07666666666663</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2509,18 +2885,27 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>34.29999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>34.09166666666663</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,18 +2929,27 @@
         <v>18</v>
       </c>
       <c r="G58" t="n">
+        <v>34.31999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>34.1033333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2579,18 +2973,27 @@
         <v>12029.869</v>
       </c>
       <c r="G59" t="n">
+        <v>34.34666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>34.11499999999997</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,18 +3017,27 @@
         <v>1722</v>
       </c>
       <c r="G60" t="n">
+        <v>34.34666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>34.12666666666663</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,18 +3061,27 @@
         <v>322.0551</v>
       </c>
       <c r="G61" t="n">
+        <v>34.37333333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>34.1433333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,18 +3105,27 @@
         <v>4107</v>
       </c>
       <c r="G62" t="n">
+        <v>34.39999999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>34.15499999999996</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2719,18 +3149,27 @@
         <v>2920</v>
       </c>
       <c r="G63" t="n">
+        <v>34.43333333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>34.16666666666662</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,18 +3193,27 @@
         <v>14.9996</v>
       </c>
       <c r="G64" t="n">
+        <v>34.43999999999998</v>
+      </c>
+      <c r="H64" t="n">
         <v>34.17999999999996</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,18 +3237,27 @@
         <v>45.2598</v>
       </c>
       <c r="G65" t="n">
+        <v>34.46666666666665</v>
+      </c>
+      <c r="H65" t="n">
         <v>34.19166666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,18 +3281,27 @@
         <v>150</v>
       </c>
       <c r="G66" t="n">
+        <v>34.47333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>34.20333333333328</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,18 +3325,27 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
+        <v>34.47999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>34.21666666666661</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2894,19 +3369,28 @@
         <v>17.889</v>
       </c>
       <c r="G68" t="n">
+        <v>34.47999999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>34.22666666666661</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
+      <c r="L68" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1.015710059171598</v>
       </c>
     </row>
     <row r="69">
@@ -2929,18 +3413,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
+        <v>34.49333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>34.23833333333327</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,18 +3451,21 @@
         <v>29.996</v>
       </c>
       <c r="G70" t="n">
+        <v>34.49999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>34.24499999999994</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2999,18 +3489,21 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>34.25333333333328</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3034,18 +3527,21 @@
         <v>17.9965</v>
       </c>
       <c r="G72" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>34.25999999999995</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3069,18 +3565,21 @@
         <v>16.9986</v>
       </c>
       <c r="G73" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H73" t="n">
         <v>34.26499999999995</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,18 +3603,21 @@
         <v>35371.4521</v>
       </c>
       <c r="G74" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>34.27166666666662</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3139,18 +3641,21 @@
         <v>399.9588</v>
       </c>
       <c r="G75" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H75" t="n">
         <v>34.27999999999995</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,18 +3679,21 @@
         <v>25.6693</v>
       </c>
       <c r="G76" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H76" t="n">
         <v>34.28833333333328</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3209,18 +3717,21 @@
         <v>161.9661</v>
       </c>
       <c r="G77" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H77" t="n">
         <v>34.29999999999995</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,18 +3755,21 @@
         <v>149.9963</v>
       </c>
       <c r="G78" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>34.30833333333328</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,18 +3793,21 @@
         <v>114.7745</v>
       </c>
       <c r="G79" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>34.31666666666661</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,18 +3831,21 @@
         <v>475</v>
       </c>
       <c r="G80" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H80" t="n">
         <v>34.32666666666661</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,18 +3869,21 @@
         <v>1245.963</v>
       </c>
       <c r="G81" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H81" t="n">
         <v>34.33499999999994</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,18 +3907,21 @@
         <v>1248.9963</v>
       </c>
       <c r="G82" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>34.34166666666661</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,18 +3945,21 @@
         <v>41.62</v>
       </c>
       <c r="G83" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>34.34833333333328</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,18 +3983,21 @@
         <v>174.808</v>
       </c>
       <c r="G84" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>34.35333333333328</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3489,18 +4021,21 @@
         <v>60</v>
       </c>
       <c r="G85" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>34.36166666666661</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,18 +4059,21 @@
         <v>425</v>
       </c>
       <c r="G86" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>34.36833333333329</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,18 +4097,21 @@
         <v>18</v>
       </c>
       <c r="G87" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>34.37499999999996</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,18 +4135,21 @@
         <v>214.96</v>
       </c>
       <c r="G88" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>34.38166666666663</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3629,18 +4173,21 @@
         <v>178.998</v>
       </c>
       <c r="G89" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>34.38499999999996</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,18 +4211,21 @@
         <v>60</v>
       </c>
       <c r="G90" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>34.39166666666662</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,18 +4249,21 @@
         <v>10000</v>
       </c>
       <c r="G91" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>34.39833333333329</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,18 +4287,21 @@
         <v>37</v>
       </c>
       <c r="G92" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>34.40499999999996</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3769,18 +4325,21 @@
         <v>32.6666</v>
       </c>
       <c r="G93" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>34.41166666666663</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,18 +4363,21 @@
         <v>194.8577</v>
       </c>
       <c r="G94" t="n">
+        <v>34.51333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>34.41833333333329</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,18 +4401,21 @@
         <v>1581.06</v>
       </c>
       <c r="G95" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>34.42499999999996</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,18 +4439,21 @@
         <v>82.8969</v>
       </c>
       <c r="G96" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>34.42999999999996</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3909,18 +4477,21 @@
         <v>82.89190000000001</v>
       </c>
       <c r="G97" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>34.43333333333329</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,18 +4515,21 @@
         <v>26.6259</v>
       </c>
       <c r="G98" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>34.43166666666663</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3979,18 +4553,21 @@
         <v>30</v>
       </c>
       <c r="G99" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>34.43666666666663</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,18 +4591,21 @@
         <v>44</v>
       </c>
       <c r="G100" t="n">
+        <v>34.49999999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>34.44166666666663</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,18 +4629,21 @@
         <v>30</v>
       </c>
       <c r="G101" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>34.4533333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,18 +4667,21 @@
         <v>199</v>
       </c>
       <c r="G102" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>34.45999999999997</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,18 +4705,21 @@
         <v>34</v>
       </c>
       <c r="G103" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>34.46666666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,18 +4743,21 @@
         <v>31</v>
       </c>
       <c r="G104" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>34.47333333333331</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,18 +4781,21 @@
         <v>125</v>
       </c>
       <c r="G105" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>34.47499999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,18 +4819,21 @@
         <v>19</v>
       </c>
       <c r="G106" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>34.48166666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,18 +4857,21 @@
         <v>1410.9986</v>
       </c>
       <c r="G107" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>34.48833333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,18 +4895,21 @@
         <v>114</v>
       </c>
       <c r="G108" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>34.49499999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,18 +4933,21 @@
         <v>123.1104</v>
       </c>
       <c r="G109" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>34.49666666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,18 +4971,21 @@
         <v>43.6029</v>
       </c>
       <c r="G110" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>34.50333333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4399,18 +5009,21 @@
         <v>3471.0774</v>
       </c>
       <c r="G111" t="n">
+        <v>34.51999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>34.50499999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,18 +5047,21 @@
         <v>34.657</v>
       </c>
       <c r="G112" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>34.50666666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,18 +5085,21 @@
         <v>46.657</v>
       </c>
       <c r="G113" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>34.50666666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,18 +5123,21 @@
         <v>31.8285</v>
       </c>
       <c r="G114" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>34.50833333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,18 +5161,401 @@
         <v>11.8285</v>
       </c>
       <c r="G115" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>34.50999999999998</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11.8285</v>
+      </c>
+      <c r="G116" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>34.51166666666664</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>146.1111</v>
+      </c>
+      <c r="G117" t="n">
+        <v>34.50666666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>34.51166666666664</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>389.0111</v>
+      </c>
+      <c r="G118" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H118" t="n">
+        <v>34.51833333333331</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30</v>
+      </c>
+      <c r="G119" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H119" t="n">
+        <v>34.51833333333331</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>186</v>
+      </c>
+      <c r="G120" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H120" t="n">
+        <v>34.51999999999997</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="G121" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>34.51999999999997</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>130</v>
+      </c>
+      <c r="G122" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>34.51999999999997</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>56.5701</v>
+      </c>
+      <c r="G123" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H123" t="n">
+        <v>34.51833333333331</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>31.6665</v>
+      </c>
+      <c r="G124" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>34.51833333333331</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>128.8281</v>
+      </c>
+      <c r="G125" t="n">
+        <v>34.52666666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>34.51833333333331</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D2" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F2" t="n">
-        <v>6720.1923</v>
+        <v>185</v>
       </c>
       <c r="G2" t="n">
-        <v>33.71333333333332</v>
+        <v>-430610.465</v>
       </c>
       <c r="H2" t="n">
-        <v>33.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="D3" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="E3" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>18057.1228</v>
       </c>
       <c r="G3" t="n">
-        <v>33.71333333333332</v>
+        <v>-412553.3422</v>
       </c>
       <c r="H3" t="n">
-        <v>33.89666666666665</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="C4" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="E4" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="F4" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>33.71999999999999</v>
+        <v>-412553.3422</v>
       </c>
       <c r="H4" t="n">
-        <v>33.88666666666665</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="C5" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="E5" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="F5" t="n">
-        <v>58916.6388</v>
+        <v>736.5497</v>
       </c>
       <c r="G5" t="n">
-        <v>33.71333333333332</v>
+        <v>-412553.3422</v>
       </c>
       <c r="H5" t="n">
-        <v>33.88833333333331</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="C6" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="E6" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="F6" t="n">
-        <v>13196.567</v>
+        <v>13458.7417</v>
       </c>
       <c r="G6" t="n">
-        <v>33.71999999999998</v>
+        <v>-412553.3422</v>
       </c>
       <c r="H6" t="n">
-        <v>33.88999999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="E7" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>92.4853</v>
+        <v>50000</v>
       </c>
       <c r="G7" t="n">
-        <v>33.71999999999998</v>
+        <v>-462553.3422</v>
       </c>
       <c r="H7" t="n">
-        <v>33.89166666666664</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D8" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E8" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>1179.8064</v>
       </c>
       <c r="G8" t="n">
-        <v>33.73333333333332</v>
+        <v>-461373.5358</v>
       </c>
       <c r="H8" t="n">
-        <v>33.89166666666664</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="D9" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="E9" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="F9" t="n">
-        <v>9980</v>
+        <v>1179.8064</v>
       </c>
       <c r="G9" t="n">
-        <v>33.74666666666666</v>
+        <v>-460193.7294</v>
       </c>
       <c r="H9" t="n">
-        <v>33.89333333333331</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -795,39 +716,30 @@
         <v>34.1</v>
       </c>
       <c r="C10" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D10" t="n">
         <v>34.1</v>
       </c>
       <c r="E10" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>50000.7517</v>
       </c>
       <c r="G10" t="n">
-        <v>33.77333333333333</v>
+        <v>-510194.4811</v>
       </c>
       <c r="H10" t="n">
-        <v>33.89833333333332</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="C11" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D11" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="E11" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F11" t="n">
-        <v>11310.995</v>
+        <v>387689.8719</v>
       </c>
       <c r="G11" t="n">
-        <v>33.80666666666665</v>
+        <v>-897884.3530000001</v>
       </c>
       <c r="H11" t="n">
-        <v>33.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -880,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D12" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E12" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F12" t="n">
-        <v>9409.840700000001</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>33.83999999999999</v>
+        <v>-897884.3530000001</v>
       </c>
       <c r="H12" t="n">
-        <v>33.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="D13" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="E13" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>18017.2914</v>
       </c>
       <c r="G13" t="n">
-        <v>33.87333333333332</v>
+        <v>-897884.3530000001</v>
       </c>
       <c r="H13" t="n">
-        <v>33.90666666666665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>33.88666666666666</v>
+        <v>-897874.3530000001</v>
       </c>
       <c r="H14" t="n">
-        <v>33.90166666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1012,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="F15" t="n">
-        <v>4437.5294</v>
+        <v>49079</v>
       </c>
       <c r="G15" t="n">
-        <v>33.90666666666667</v>
+        <v>-897874.3530000001</v>
       </c>
       <c r="H15" t="n">
-        <v>33.90333333333332</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1056,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="F16" t="n">
-        <v>9000</v>
+        <v>227337.6667</v>
       </c>
       <c r="G16" t="n">
-        <v>33.93999999999999</v>
+        <v>-1125212.0197</v>
       </c>
       <c r="H16" t="n">
-        <v>33.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C17" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="D17" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="E17" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>33.93999999999999</v>
+        <v>-1125202.0197</v>
       </c>
       <c r="H17" t="n">
-        <v>33.90333333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>1522.771</v>
       </c>
       <c r="G18" t="n">
-        <v>33.94666666666667</v>
+        <v>-1126724.7907</v>
       </c>
       <c r="H18" t="n">
-        <v>33.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1190,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1039.3235</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>33.96666666666666</v>
+        <v>-1126624.7907</v>
       </c>
       <c r="H19" t="n">
-        <v>33.90666666666665</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>34</v>
-      </c>
-      <c r="L19" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1926.7058</v>
+        <v>507.8762</v>
       </c>
       <c r="G20" t="n">
-        <v>33.98</v>
+        <v>-1127132.6669</v>
       </c>
       <c r="H20" t="n">
-        <v>33.90333333333332</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>34</v>
-      </c>
-      <c r="L20" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1282,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1983.6374</v>
+        <v>2087.4807</v>
       </c>
       <c r="G21" t="n">
-        <v>33.99333333333333</v>
+        <v>-1125045.1862</v>
       </c>
       <c r="H21" t="n">
-        <v>33.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,44 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C22" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D22" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E22" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2298.651</v>
+        <v>69400.183</v>
       </c>
       <c r="G22" t="n">
-        <v>34.01333333333334</v>
+        <v>-1194445.3692</v>
       </c>
       <c r="H22" t="n">
-        <v>33.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>34</v>
-      </c>
-      <c r="L22" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C23" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D23" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E23" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F23" t="n">
-        <v>12233.5451</v>
+        <v>35001.3382</v>
       </c>
       <c r="G23" t="n">
-        <v>34.02666666666666</v>
+        <v>-1194445.3692</v>
       </c>
       <c r="H23" t="n">
-        <v>33.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="C24" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="D24" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="E24" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="F24" t="n">
-        <v>57.0175</v>
+        <v>68623.0563</v>
       </c>
       <c r="G24" t="n">
-        <v>34.04666666666667</v>
+        <v>-1194445.3692</v>
       </c>
       <c r="H24" t="n">
-        <v>33.90333333333331</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,42 +1238,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C25" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="D25" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E25" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="F25" t="n">
-        <v>1290.3225</v>
+        <v>87580</v>
       </c>
       <c r="G25" t="n">
-        <v>34.04666666666667</v>
+        <v>-1282025.3692</v>
       </c>
       <c r="H25" t="n">
-        <v>33.90666666666664</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,42 +1279,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="C26" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="D26" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="E26" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="F26" t="n">
-        <v>23900.231</v>
+        <v>68623.0563</v>
       </c>
       <c r="G26" t="n">
-        <v>34.04666666666667</v>
+        <v>-1282025.3692</v>
       </c>
       <c r="H26" t="n">
-        <v>33.91166666666665</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,42 +1318,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D27" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E27" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3571.299</v>
+        <v>529.3967</v>
       </c>
       <c r="G27" t="n">
-        <v>34.04666666666667</v>
+        <v>-1281495.9725</v>
       </c>
       <c r="H27" t="n">
-        <v>33.91666666666665</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,42 +1359,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C28" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D28" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E28" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F28" t="n">
-        <v>34279.819</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>34.04000000000001</v>
+        <v>-1281485.9725</v>
       </c>
       <c r="H28" t="n">
-        <v>33.92166666666665</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,42 +1400,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>34.3</v>
+        <v>33.7</v>
       </c>
       <c r="D29" t="n">
-        <v>34.3</v>
+        <v>33.7</v>
       </c>
       <c r="E29" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F29" t="n">
-        <v>3334</v>
+        <v>14888.6943</v>
       </c>
       <c r="G29" t="n">
-        <v>34.06000000000001</v>
+        <v>-1296374.6668</v>
       </c>
       <c r="H29" t="n">
-        <v>33.92333333333332</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,42 +1441,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="C30" t="n">
-        <v>34.1</v>
+        <v>33.5</v>
       </c>
       <c r="D30" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="E30" t="n">
-        <v>34.1</v>
+        <v>33.5</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>100000</v>
       </c>
       <c r="G30" t="n">
-        <v>34.06666666666668</v>
+        <v>-1396374.6668</v>
       </c>
       <c r="H30" t="n">
-        <v>33.92833333333332</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,42 +1480,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C31" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D31" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E31" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>6720.1923</v>
       </c>
       <c r="G31" t="n">
-        <v>34.07333333333334</v>
+        <v>-1389654.4745</v>
       </c>
       <c r="H31" t="n">
-        <v>33.92666666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,42 +1519,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="C32" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="D32" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="E32" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="F32" t="n">
-        <v>20018</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>34.09333333333334</v>
+        <v>-1389644.4745</v>
       </c>
       <c r="H32" t="n">
-        <v>33.92833333333332</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,42 +1558,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="D33" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="E33" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="F33" t="n">
-        <v>34</v>
+        <v>13000</v>
       </c>
       <c r="G33" t="n">
-        <v>34.10000000000001</v>
+        <v>-1402644.4745</v>
       </c>
       <c r="H33" t="n">
-        <v>33.92833333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,42 +1597,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="C34" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D34" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E34" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>58916.6388</v>
       </c>
       <c r="G34" t="n">
-        <v>34.10666666666668</v>
+        <v>-1343727.8357</v>
       </c>
       <c r="H34" t="n">
-        <v>33.92666666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,42 +1636,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C35" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D35" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E35" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F35" t="n">
-        <v>37.9684</v>
+        <v>13196.567</v>
       </c>
       <c r="G35" t="n">
-        <v>34.11333333333334</v>
+        <v>-1343727.8357</v>
       </c>
       <c r="H35" t="n">
-        <v>33.92499999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,42 +1675,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="C36" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="D36" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="E36" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="F36" t="n">
-        <v>373</v>
+        <v>92.4853</v>
       </c>
       <c r="G36" t="n">
-        <v>34.12666666666668</v>
+        <v>-1343727.8357</v>
       </c>
       <c r="H36" t="n">
-        <v>33.92499999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,42 +1714,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="C37" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="D37" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="E37" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="F37" t="n">
-        <v>12900</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>34.14000000000001</v>
+        <v>-1343717.8357</v>
       </c>
       <c r="H37" t="n">
-        <v>33.92666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,42 +1753,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="C38" t="n">
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="D38" t="n">
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="E38" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>9980</v>
       </c>
       <c r="G38" t="n">
-        <v>34.17333333333334</v>
+        <v>-1343717.8357</v>
       </c>
       <c r="H38" t="n">
-        <v>33.93666666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,42 +1792,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C39" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D39" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E39" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G39" t="n">
-        <v>34.17333333333334</v>
+        <v>-1343699.8357</v>
       </c>
       <c r="H39" t="n">
-        <v>33.93833333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,42 +1831,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C40" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D40" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E40" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F40" t="n">
-        <v>2155.4861</v>
+        <v>11310.995</v>
       </c>
       <c r="G40" t="n">
-        <v>34.18000000000001</v>
+        <v>-1343699.8357</v>
       </c>
       <c r="H40" t="n">
-        <v>33.93833333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,30 +1882,25 @@
         <v>34.1</v>
       </c>
       <c r="F41" t="n">
-        <v>12233.5451</v>
+        <v>9409.840700000001</v>
       </c>
       <c r="G41" t="n">
-        <v>34.18000000000001</v>
+        <v>-1343699.8357</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94333333333332</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2213,39 +1912,34 @@
         <v>34.2</v>
       </c>
       <c r="C42" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D42" t="n">
         <v>34.2</v>
       </c>
       <c r="E42" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F42" t="n">
-        <v>211161.7998</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>34.18000000000001</v>
+        <v>-1343681.8357</v>
       </c>
       <c r="H42" t="n">
-        <v>33.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,42 +1948,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E43" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F43" t="n">
-        <v>5705.1453</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>34.18000000000001</v>
+        <v>-1348681.8357</v>
       </c>
       <c r="H43" t="n">
-        <v>33.95666666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,42 +1987,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C44" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="E44" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F44" t="n">
-        <v>1605.0743</v>
+        <v>4437.5294</v>
       </c>
       <c r="G44" t="n">
-        <v>34.16666666666668</v>
+        <v>-1348681.8357</v>
       </c>
       <c r="H44" t="n">
-        <v>33.96333333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,42 +2026,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="E45" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>9000</v>
       </c>
       <c r="G45" t="n">
-        <v>34.18666666666668</v>
+        <v>-1348681.8357</v>
       </c>
       <c r="H45" t="n">
-        <v>33.97166666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,42 +2065,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C46" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D46" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E46" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F46" t="n">
-        <v>1460.9621</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="n">
-        <v>34.18666666666668</v>
+        <v>-1353681.8357</v>
       </c>
       <c r="H46" t="n">
-        <v>33.97499999999999</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,42 +2104,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F47" t="n">
-        <v>48.6893</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>34.18666666666668</v>
+        <v>-1353671.8357</v>
       </c>
       <c r="H47" t="n">
-        <v>33.98333333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,42 +2143,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="E48" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F48" t="n">
-        <v>7261.6902</v>
+        <v>1039.3235</v>
       </c>
       <c r="G48" t="n">
-        <v>34.18666666666668</v>
+        <v>-1353671.8357</v>
       </c>
       <c r="H48" t="n">
-        <v>33.98666666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,42 +2182,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>1926.7058</v>
       </c>
       <c r="G49" t="n">
-        <v>34.20666666666668</v>
+        <v>-1353671.8357</v>
       </c>
       <c r="H49" t="n">
-        <v>33.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2562,42 +2221,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E50" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F50" t="n">
-        <v>19</v>
+        <v>1983.6374</v>
       </c>
       <c r="G50" t="n">
-        <v>34.20666666666668</v>
+        <v>-1353671.8357</v>
       </c>
       <c r="H50" t="n">
-        <v>34.00333333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2606,42 +2260,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C51" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D51" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E51" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>2298.651</v>
       </c>
       <c r="G51" t="n">
-        <v>34.22000000000001</v>
+        <v>-1351373.1847</v>
       </c>
       <c r="H51" t="n">
-        <v>34.01499999999998</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,42 +2299,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C52" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D52" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E52" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F52" t="n">
-        <v>128</v>
+        <v>12233.5451</v>
       </c>
       <c r="G52" t="n">
-        <v>34.23333333333334</v>
+        <v>-1351373.1847</v>
       </c>
       <c r="H52" t="n">
-        <v>34.02666666666665</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,42 +2338,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C53" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D53" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E53" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F53" t="n">
-        <v>28</v>
+        <v>57.0175</v>
       </c>
       <c r="G53" t="n">
-        <v>34.22666666666667</v>
+        <v>-1351316.1672</v>
       </c>
       <c r="H53" t="n">
-        <v>34.03999999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,42 +2377,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C54" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D54" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E54" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F54" t="n">
-        <v>188</v>
+        <v>1290.3225</v>
       </c>
       <c r="G54" t="n">
-        <v>34.24</v>
+        <v>-1352606.4897</v>
       </c>
       <c r="H54" t="n">
-        <v>34.05166666666664</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,42 +2416,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C55" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D55" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E55" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F55" t="n">
-        <v>50000</v>
+        <v>23900.231</v>
       </c>
       <c r="G55" t="n">
-        <v>34.25333333333333</v>
+        <v>-1352606.4897</v>
       </c>
       <c r="H55" t="n">
-        <v>34.0633333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,42 +2455,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C56" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D56" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E56" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F56" t="n">
-        <v>137782.1153</v>
+        <v>3571.299</v>
       </c>
       <c r="G56" t="n">
-        <v>34.27333333333333</v>
+        <v>-1352606.4897</v>
       </c>
       <c r="H56" t="n">
-        <v>34.07666666666663</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,42 +2494,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C57" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D57" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E57" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>34279.819</v>
       </c>
       <c r="G57" t="n">
-        <v>34.29999999999999</v>
+        <v>-1352606.4897</v>
       </c>
       <c r="H57" t="n">
-        <v>34.09166666666663</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,42 +2533,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C58" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D58" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E58" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F58" t="n">
-        <v>18</v>
+        <v>3334</v>
       </c>
       <c r="G58" t="n">
-        <v>34.31999999999999</v>
+        <v>-1349272.4897</v>
       </c>
       <c r="H58" t="n">
-        <v>34.1033333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,42 +2572,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C59" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D59" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E59" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F59" t="n">
-        <v>12029.869</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>34.34666666666666</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H59" t="n">
-        <v>34.11499999999997</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,42 +2611,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="C60" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D60" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="E60" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1722</v>
+        <v>15</v>
       </c>
       <c r="G60" t="n">
-        <v>34.34666666666666</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H60" t="n">
-        <v>34.12666666666663</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,42 +2650,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="C61" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D61" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E61" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F61" t="n">
-        <v>322.0551</v>
+        <v>20018</v>
       </c>
       <c r="G61" t="n">
-        <v>34.37333333333332</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H61" t="n">
-        <v>34.1433333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,42 +2689,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F62" t="n">
-        <v>4107</v>
+        <v>34</v>
       </c>
       <c r="G62" t="n">
-        <v>34.39999999999998</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H62" t="n">
-        <v>34.15499999999996</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,42 +2728,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="C63" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="D63" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="E63" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="F63" t="n">
-        <v>2920</v>
+        <v>24</v>
       </c>
       <c r="G63" t="n">
-        <v>34.43333333333332</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H63" t="n">
-        <v>34.16666666666662</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,42 +2767,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C64" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D64" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E64" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F64" t="n">
-        <v>14.9996</v>
+        <v>37.9684</v>
       </c>
       <c r="G64" t="n">
-        <v>34.43999999999998</v>
+        <v>-1349287.4897</v>
       </c>
       <c r="H64" t="n">
-        <v>34.17999999999996</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,42 +2806,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="C65" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D65" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E65" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="F65" t="n">
-        <v>45.2598</v>
+        <v>373</v>
       </c>
       <c r="G65" t="n">
-        <v>34.46666666666665</v>
+        <v>-1348914.4897</v>
       </c>
       <c r="H65" t="n">
-        <v>34.19166666666662</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,42 +2845,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="C66" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="D66" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="E66" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>12900</v>
       </c>
       <c r="G66" t="n">
-        <v>34.47333333333332</v>
+        <v>-1336014.4897</v>
       </c>
       <c r="H66" t="n">
-        <v>34.20333333333328</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,7 +2884,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="C67" t="n">
         <v>34.6</v>
@@ -3319,33 +2893,28 @@
         <v>34.6</v>
       </c>
       <c r="E67" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>34.47999999999999</v>
+        <v>-1335914.4897</v>
       </c>
       <c r="H67" t="n">
-        <v>34.21666666666661</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,43 +2923,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="C68" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D68" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E68" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="F68" t="n">
-        <v>17.889</v>
+        <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>34.47999999999999</v>
+        <v>-1335925.4897</v>
       </c>
       <c r="H68" t="n">
-        <v>34.22666666666661</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>1.015710059171598</v>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3398,36 +2962,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="C69" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="D69" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E69" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>2155.4861</v>
       </c>
       <c r="G69" t="n">
-        <v>34.49333333333333</v>
+        <v>-1335925.4897</v>
       </c>
       <c r="H69" t="n">
-        <v>34.23833333333327</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,36 +3001,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C70" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D70" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E70" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F70" t="n">
-        <v>29.996</v>
+        <v>12233.5451</v>
       </c>
       <c r="G70" t="n">
-        <v>34.49999999999999</v>
+        <v>-1348159.0348</v>
       </c>
       <c r="H70" t="n">
-        <v>34.24499999999994</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,36 +3040,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="C71" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="D71" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E71" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>211161.7998</v>
       </c>
       <c r="G71" t="n">
-        <v>34.51333333333333</v>
+        <v>-1348159.0348</v>
       </c>
       <c r="H71" t="n">
-        <v>34.25333333333328</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,36 +3079,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C72" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D72" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E72" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F72" t="n">
-        <v>17.9965</v>
+        <v>5705.1453</v>
       </c>
       <c r="G72" t="n">
-        <v>34.51333333333333</v>
+        <v>-1348159.0348</v>
       </c>
       <c r="H72" t="n">
-        <v>34.25999999999995</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,36 +3118,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="C73" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D73" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E73" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F73" t="n">
-        <v>16.9986</v>
+        <v>1605.0743</v>
       </c>
       <c r="G73" t="n">
-        <v>34.52</v>
+        <v>-1348159.0348</v>
       </c>
       <c r="H73" t="n">
-        <v>34.26499999999995</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,36 +3157,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C74" t="n">
         <v>34.4</v>
       </c>
       <c r="D74" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E74" t="n">
         <v>34.4</v>
       </c>
       <c r="F74" t="n">
-        <v>35371.4521</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>34.51333333333333</v>
+        <v>-1348149.0348</v>
       </c>
       <c r="H74" t="n">
-        <v>34.27166666666662</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,36 +3196,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C75" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D75" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E75" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F75" t="n">
-        <v>399.9588</v>
+        <v>1460.9621</v>
       </c>
       <c r="G75" t="n">
-        <v>34.52</v>
+        <v>-1349609.9969</v>
       </c>
       <c r="H75" t="n">
-        <v>34.27999999999995</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,36 +3235,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C76" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D76" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E76" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F76" t="n">
-        <v>25.6693</v>
+        <v>48.6893</v>
       </c>
       <c r="G76" t="n">
-        <v>34.52</v>
+        <v>-1349609.9969</v>
       </c>
       <c r="H76" t="n">
-        <v>34.28833333333328</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,36 +3274,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C77" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D77" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E77" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F77" t="n">
-        <v>161.9661</v>
+        <v>7261.6902</v>
       </c>
       <c r="G77" t="n">
-        <v>34.52</v>
+        <v>-1349609.9969</v>
       </c>
       <c r="H77" t="n">
-        <v>34.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,36 +3313,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C78" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D78" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E78" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F78" t="n">
-        <v>149.9963</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>34.51333333333333</v>
+        <v>-1349599.9969</v>
       </c>
       <c r="H78" t="n">
-        <v>34.30833333333328</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,36 +3352,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C79" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D79" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E79" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F79" t="n">
-        <v>114.7745</v>
+        <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>34.51333333333333</v>
+        <v>-1349618.9969</v>
       </c>
       <c r="H79" t="n">
-        <v>34.31666666666661</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,36 +3391,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C80" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D80" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E80" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F80" t="n">
-        <v>475</v>
+        <v>18</v>
       </c>
       <c r="G80" t="n">
-        <v>34.52</v>
+        <v>-1349600.9969</v>
       </c>
       <c r="H80" t="n">
-        <v>34.32666666666661</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,7 +3430,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C81" t="n">
         <v>34.5</v>
@@ -3863,27 +3439,28 @@
         <v>34.5</v>
       </c>
       <c r="E81" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F81" t="n">
-        <v>1245.963</v>
+        <v>128</v>
       </c>
       <c r="G81" t="n">
-        <v>34.52</v>
+        <v>-1349472.9969</v>
       </c>
       <c r="H81" t="n">
-        <v>34.33499999999994</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3892,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C82" t="n">
         <v>34.5</v>
@@ -3901,27 +3478,28 @@
         <v>34.5</v>
       </c>
       <c r="E82" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F82" t="n">
-        <v>1248.9963</v>
+        <v>28</v>
       </c>
       <c r="G82" t="n">
-        <v>34.51333333333333</v>
+        <v>-1349472.9969</v>
       </c>
       <c r="H82" t="n">
-        <v>34.34166666666661</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,36 +3508,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C83" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D83" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E83" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F83" t="n">
-        <v>41.62</v>
+        <v>188</v>
       </c>
       <c r="G83" t="n">
-        <v>34.51333333333333</v>
+        <v>-1349660.9969</v>
       </c>
       <c r="H83" t="n">
-        <v>34.34833333333328</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,36 +3547,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C84" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D84" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E84" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F84" t="n">
-        <v>174.808</v>
+        <v>50000</v>
       </c>
       <c r="G84" t="n">
-        <v>34.50666666666666</v>
+        <v>-1349660.9969</v>
       </c>
       <c r="H84" t="n">
-        <v>34.35333333333328</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,36 +3586,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C85" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D85" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E85" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F85" t="n">
-        <v>60</v>
+        <v>137782.1153</v>
       </c>
       <c r="G85" t="n">
-        <v>34.51333333333333</v>
+        <v>-1349660.9969</v>
       </c>
       <c r="H85" t="n">
-        <v>34.36166666666661</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,24 +3637,25 @@
         <v>34.5</v>
       </c>
       <c r="F86" t="n">
-        <v>425</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>34.50666666666666</v>
+        <v>-1349650.9969</v>
       </c>
       <c r="H86" t="n">
-        <v>34.36833333333329</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,36 +3664,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C87" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D87" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E87" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F87" t="n">
         <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>34.50666666666666</v>
+        <v>-1349668.9969</v>
       </c>
       <c r="H87" t="n">
-        <v>34.37499999999996</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,36 +3703,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C88" t="n">
         <v>34.5</v>
       </c>
       <c r="D88" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E88" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F88" t="n">
-        <v>214.96</v>
+        <v>12029.869</v>
       </c>
       <c r="G88" t="n">
-        <v>34.50666666666666</v>
+        <v>-1337639.1279</v>
       </c>
       <c r="H88" t="n">
-        <v>34.38166666666663</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,36 +3742,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C89" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D89" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E89" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F89" t="n">
-        <v>178.998</v>
+        <v>1722</v>
       </c>
       <c r="G89" t="n">
-        <v>34.51333333333333</v>
+        <v>-1339361.1279</v>
       </c>
       <c r="H89" t="n">
-        <v>34.38499999999996</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,24 +3793,25 @@
         <v>34.5</v>
       </c>
       <c r="F90" t="n">
-        <v>60</v>
+        <v>322.0551</v>
       </c>
       <c r="G90" t="n">
-        <v>34.51333333333333</v>
+        <v>-1339039.0728</v>
       </c>
       <c r="H90" t="n">
-        <v>34.39166666666662</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,24 +3832,25 @@
         <v>34.5</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>4107</v>
       </c>
       <c r="G91" t="n">
-        <v>34.51333333333333</v>
+        <v>-1339039.0728</v>
       </c>
       <c r="H91" t="n">
-        <v>34.39833333333329</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,36 +3859,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C92" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D92" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E92" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F92" t="n">
-        <v>37</v>
+        <v>2920</v>
       </c>
       <c r="G92" t="n">
-        <v>34.51333333333333</v>
+        <v>-1336119.0728</v>
       </c>
       <c r="H92" t="n">
-        <v>34.40499999999996</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,24 +3910,25 @@
         <v>34.5</v>
       </c>
       <c r="F93" t="n">
-        <v>32.6666</v>
+        <v>14.9996</v>
       </c>
       <c r="G93" t="n">
-        <v>34.51333333333333</v>
+        <v>-1336134.0724</v>
       </c>
       <c r="H93" t="n">
-        <v>34.41166666666663</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,36 +3937,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C94" t="n">
         <v>34.5</v>
       </c>
       <c r="D94" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E94" t="n">
         <v>34.5</v>
       </c>
       <c r="F94" t="n">
-        <v>194.8577</v>
+        <v>45.2598</v>
       </c>
       <c r="G94" t="n">
-        <v>34.51333333333333</v>
+        <v>-1336134.0724</v>
       </c>
       <c r="H94" t="n">
-        <v>34.41833333333329</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,24 +3988,25 @@
         <v>34.5</v>
       </c>
       <c r="F95" t="n">
-        <v>1581.06</v>
+        <v>150</v>
       </c>
       <c r="G95" t="n">
-        <v>34.50666666666666</v>
+        <v>-1336134.0724</v>
       </c>
       <c r="H95" t="n">
-        <v>34.42499999999996</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,36 +4015,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C96" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D96" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E96" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F96" t="n">
-        <v>82.8969</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>34.50666666666666</v>
+        <v>-1336124.0724</v>
       </c>
       <c r="H96" t="n">
-        <v>34.42999999999996</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,24 +4066,25 @@
         <v>34.5</v>
       </c>
       <c r="F97" t="n">
-        <v>82.89190000000001</v>
+        <v>17.889</v>
       </c>
       <c r="G97" t="n">
-        <v>34.50666666666666</v>
+        <v>-1336141.9614</v>
       </c>
       <c r="H97" t="n">
-        <v>34.43333333333329</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,36 +4093,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C98" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D98" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E98" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F98" t="n">
-        <v>26.6259</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>34.50666666666666</v>
+        <v>-1336131.9614</v>
       </c>
       <c r="H98" t="n">
-        <v>34.43166666666663</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,24 +4144,25 @@
         <v>34.5</v>
       </c>
       <c r="F99" t="n">
-        <v>30</v>
+        <v>29.996</v>
       </c>
       <c r="G99" t="n">
-        <v>34.50666666666666</v>
+        <v>-1336161.9574</v>
       </c>
       <c r="H99" t="n">
-        <v>34.43666666666663</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,36 +4171,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C100" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D100" t="n">
         <v>34.6</v>
       </c>
       <c r="E100" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F100" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>34.49999999999999</v>
+        <v>-1336151.9574</v>
       </c>
       <c r="H100" t="n">
-        <v>34.44166666666663</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,36 +4210,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C101" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="D101" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="E101" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>17.9965</v>
       </c>
       <c r="G101" t="n">
-        <v>34.51999999999999</v>
+        <v>-1336169.9539</v>
       </c>
       <c r="H101" t="n">
-        <v>34.4533333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,36 +4249,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C102" t="n">
         <v>34.5</v>
       </c>
       <c r="D102" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E102" t="n">
         <v>34.5</v>
       </c>
       <c r="F102" t="n">
-        <v>199</v>
+        <v>16.9986</v>
       </c>
       <c r="G102" t="n">
-        <v>34.51999999999999</v>
+        <v>-1336169.9539</v>
       </c>
       <c r="H102" t="n">
-        <v>34.45999999999997</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4693,33 +4291,34 @@
         <v>34.5</v>
       </c>
       <c r="C103" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D103" t="n">
         <v>34.5</v>
       </c>
       <c r="E103" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F103" t="n">
-        <v>34</v>
+        <v>35371.4521</v>
       </c>
       <c r="G103" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371541.406</v>
       </c>
       <c r="H103" t="n">
-        <v>34.46666666666665</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,24 +4339,25 @@
         <v>34.5</v>
       </c>
       <c r="F104" t="n">
-        <v>31</v>
+        <v>399.9588</v>
       </c>
       <c r="G104" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371141.4472</v>
       </c>
       <c r="H104" t="n">
-        <v>34.47333333333331</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +4378,25 @@
         <v>34.5</v>
       </c>
       <c r="F105" t="n">
-        <v>125</v>
+        <v>25.6693</v>
       </c>
       <c r="G105" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371141.4472</v>
       </c>
       <c r="H105" t="n">
-        <v>34.47499999999998</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,24 +4417,25 @@
         <v>34.5</v>
       </c>
       <c r="F106" t="n">
-        <v>19</v>
+        <v>161.9661</v>
       </c>
       <c r="G106" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371141.4472</v>
       </c>
       <c r="H106" t="n">
-        <v>34.48166666666665</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,36 +4444,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C107" t="n">
         <v>34.5</v>
       </c>
       <c r="D107" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E107" t="n">
         <v>34.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1410.9986</v>
+        <v>149.9963</v>
       </c>
       <c r="G107" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371141.4472</v>
       </c>
       <c r="H107" t="n">
-        <v>34.48833333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,24 +4495,25 @@
         <v>34.5</v>
       </c>
       <c r="F108" t="n">
-        <v>114</v>
+        <v>114.7745</v>
       </c>
       <c r="G108" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371141.4472</v>
       </c>
       <c r="H108" t="n">
-        <v>34.49499999999998</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,36 +4522,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C109" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D109" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E109" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F109" t="n">
-        <v>123.1104</v>
+        <v>475</v>
       </c>
       <c r="G109" t="n">
-        <v>34.51999999999999</v>
+        <v>-1370666.4472</v>
       </c>
       <c r="H109" t="n">
-        <v>34.49666666666665</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,24 +4573,25 @@
         <v>34.5</v>
       </c>
       <c r="F110" t="n">
-        <v>43.6029</v>
+        <v>1245.963</v>
       </c>
       <c r="G110" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371912.4102</v>
       </c>
       <c r="H110" t="n">
-        <v>34.50333333333332</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,24 +4612,25 @@
         <v>34.5</v>
       </c>
       <c r="F111" t="n">
-        <v>3471.0774</v>
+        <v>1248.9963</v>
       </c>
       <c r="G111" t="n">
-        <v>34.51999999999999</v>
+        <v>-1371912.4102</v>
       </c>
       <c r="H111" t="n">
-        <v>34.50499999999998</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,7 +4642,7 @@
         <v>34.5</v>
       </c>
       <c r="C112" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D112" t="n">
         <v>34.6</v>
@@ -5044,24 +4651,25 @@
         <v>34.5</v>
       </c>
       <c r="F112" t="n">
-        <v>34.657</v>
+        <v>41.62</v>
       </c>
       <c r="G112" t="n">
-        <v>34.52666666666666</v>
+        <v>-1371912.4102</v>
       </c>
       <c r="H112" t="n">
-        <v>34.50666666666665</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,36 +4678,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C113" t="n">
         <v>34.5</v>
       </c>
       <c r="D113" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E113" t="n">
         <v>34.5</v>
       </c>
       <c r="F113" t="n">
-        <v>46.657</v>
+        <v>174.808</v>
       </c>
       <c r="G113" t="n">
-        <v>34.52666666666666</v>
+        <v>-1371912.4102</v>
       </c>
       <c r="H113" t="n">
-        <v>34.50666666666665</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,36 +4717,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C114" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D114" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E114" t="n">
         <v>34.5</v>
       </c>
       <c r="F114" t="n">
-        <v>31.8285</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>34.52666666666666</v>
+        <v>-1371852.4102</v>
       </c>
       <c r="H114" t="n">
-        <v>34.50833333333331</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,24 +4768,25 @@
         <v>34.5</v>
       </c>
       <c r="F115" t="n">
-        <v>11.8285</v>
+        <v>425</v>
       </c>
       <c r="G115" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H115" t="n">
-        <v>34.50999999999998</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,24 +4807,25 @@
         <v>34.5</v>
       </c>
       <c r="F116" t="n">
-        <v>11.8285</v>
+        <v>18</v>
       </c>
       <c r="G116" t="n">
-        <v>34.50666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H116" t="n">
-        <v>34.51166666666664</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5222,36 +4834,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C117" t="n">
         <v>34.5</v>
       </c>
       <c r="D117" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E117" t="n">
         <v>34.5</v>
       </c>
       <c r="F117" t="n">
-        <v>146.1111</v>
+        <v>214.96</v>
       </c>
       <c r="G117" t="n">
-        <v>34.50666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H117" t="n">
-        <v>34.51166666666664</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,33 +4876,34 @@
         <v>34.5</v>
       </c>
       <c r="C118" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="D118" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="E118" t="n">
         <v>34.5</v>
       </c>
       <c r="F118" t="n">
-        <v>389.0111</v>
+        <v>178.998</v>
       </c>
       <c r="G118" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H118" t="n">
-        <v>34.51833333333331</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,24 +4924,25 @@
         <v>34.5</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G119" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H119" t="n">
-        <v>34.51833333333331</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,24 +4963,25 @@
         <v>34.5</v>
       </c>
       <c r="F120" t="n">
-        <v>186</v>
+        <v>10000</v>
       </c>
       <c r="G120" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H120" t="n">
-        <v>34.51999999999997</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,26 +5002,25 @@
         <v>34.5</v>
       </c>
       <c r="F121" t="n">
-        <v>55.67</v>
+        <v>37</v>
       </c>
       <c r="G121" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H121" t="n">
-        <v>34.51999999999997</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5424,24 +5039,21 @@
         <v>34.5</v>
       </c>
       <c r="F122" t="n">
-        <v>130</v>
+        <v>32.6666</v>
       </c>
       <c r="G122" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H122" t="n">
-        <v>34.51999999999997</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,24 +5074,21 @@
         <v>34.5</v>
       </c>
       <c r="F123" t="n">
-        <v>56.5701</v>
+        <v>194.8577</v>
       </c>
       <c r="G123" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H123" t="n">
-        <v>34.51833333333331</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5500,24 +5109,21 @@
         <v>34.5</v>
       </c>
       <c r="F124" t="n">
-        <v>31.6665</v>
+        <v>1581.06</v>
       </c>
       <c r="G124" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H124" t="n">
-        <v>34.51833333333331</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,24 +5144,1036 @@
         <v>34.5</v>
       </c>
       <c r="F125" t="n">
-        <v>128.8281</v>
+        <v>82.8969</v>
       </c>
       <c r="G125" t="n">
-        <v>34.52666666666666</v>
+        <v>-1372277.4102</v>
       </c>
       <c r="H125" t="n">
-        <v>34.51833333333331</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>82.89190000000001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1372277.4102</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26.6259</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1372277.4102</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1372277.4102</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>44</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1372277.4102</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1372247.4102</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>199</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>34</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>31</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>19</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1410.9986</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>114</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>123.1104</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>43.6029</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3471.0774</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1372446.4102</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>34.657</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1372411.7532</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>46.657</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1372458.4102</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>31.8285</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1372458.4102</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>11.8285</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1372458.4102</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.8285</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1372458.4102</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>146.1111</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1372458.4102</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>389.0111</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1372069.3991</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>186</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>130</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>56.5701</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31.6665</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>128.8281</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1372099.3991</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>185</v>
+        <v>4437.5294</v>
       </c>
       <c r="G2" t="n">
-        <v>-430610.465</v>
+        <v>34.06666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>18057.1228</v>
+        <v>9000</v>
       </c>
       <c r="G3" t="n">
-        <v>-412553.3422</v>
+        <v>33.99999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="C4" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="D4" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="E4" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>-412553.3422</v>
+        <v>33.93333333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>736.5497</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-412553.3422</v>
+        <v>33.93333333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,63 +575,69 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>13458.7417</v>
+        <v>1039.3235</v>
       </c>
       <c r="G6" t="n">
-        <v>-412553.3422</v>
+        <v>33.93333333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>1926.7058</v>
       </c>
       <c r="G7" t="n">
-        <v>-462553.3422</v>
+        <v>33.99999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,81 +646,102 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>34</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>1179.8064</v>
+        <v>1983.6374</v>
       </c>
       <c r="G8" t="n">
-        <v>-461373.5358</v>
+        <v>33.99999999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E9" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F9" t="n">
-        <v>1179.8064</v>
+        <v>2298.651</v>
       </c>
       <c r="G9" t="n">
-        <v>-460193.7294</v>
+        <v>34.03333333333331</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>34</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -716,54 +751,63 @@
         <v>34.1</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D10" t="n">
         <v>34.1</v>
       </c>
       <c r="E10" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F10" t="n">
-        <v>50000.7517</v>
+        <v>12233.5451</v>
       </c>
       <c r="G10" t="n">
-        <v>-510194.4811</v>
+        <v>34.06666666666664</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="D11" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="E11" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="F11" t="n">
-        <v>387689.8719</v>
+        <v>57.0175</v>
       </c>
       <c r="G11" t="n">
-        <v>-897884.3530000001</v>
+        <v>34.1333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,33 +816,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>34</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C12" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D12" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E12" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F12" t="n">
-        <v>5000</v>
+        <v>1290.3225</v>
       </c>
       <c r="G12" t="n">
-        <v>-897884.3530000001</v>
+        <v>34.1333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +863,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C13" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D13" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E13" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F13" t="n">
-        <v>18017.2914</v>
+        <v>23900.231</v>
       </c>
       <c r="G13" t="n">
-        <v>-897884.3530000001</v>
+        <v>34.1333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +899,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E14" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>3571.299</v>
       </c>
       <c r="G14" t="n">
-        <v>-897874.3530000001</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +935,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C15" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D15" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E15" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F15" t="n">
-        <v>49079</v>
+        <v>34279.819</v>
       </c>
       <c r="G15" t="n">
-        <v>-897874.3530000001</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +971,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C16" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="D16" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="E16" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="F16" t="n">
-        <v>227337.6667</v>
+        <v>3334</v>
       </c>
       <c r="G16" t="n">
-        <v>-1125212.0197</v>
+        <v>34.16666666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +1007,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C17" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D17" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E17" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>-1125202.0197</v>
+        <v>34.16666666666664</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,63 +1043,69 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="C18" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="D18" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="E18" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="F18" t="n">
-        <v>1522.771</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>-1126724.7907</v>
+        <v>34.16666666666664</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="C19" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D19" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="E19" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>20018</v>
       </c>
       <c r="G19" t="n">
-        <v>-1126624.7907</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,68 +1114,84 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C20" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D20" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E20" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F20" t="n">
-        <v>507.8762</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>-1127132.6669</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="C21" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D21" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E21" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2087.4807</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>-1125045.1862</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1200,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C22" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D22" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E22" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F22" t="n">
-        <v>69400.183</v>
+        <v>37.9684</v>
       </c>
       <c r="G22" t="n">
-        <v>-1194445.3692</v>
+        <v>34.09999999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1242,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="C23" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="D23" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="E23" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="F23" t="n">
-        <v>35001.3382</v>
+        <v>373</v>
       </c>
       <c r="G23" t="n">
-        <v>-1194445.3692</v>
+        <v>34.13333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1284,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="C24" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="D24" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="E24" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="F24" t="n">
-        <v>68623.0563</v>
+        <v>12900</v>
       </c>
       <c r="G24" t="n">
-        <v>-1194445.3692</v>
+        <v>34.19999999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,74 +1326,82 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="C25" t="n">
-        <v>33.6</v>
+        <v>34.6</v>
       </c>
       <c r="D25" t="n">
-        <v>33.7</v>
+        <v>34.6</v>
       </c>
       <c r="E25" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="F25" t="n">
-        <v>87580</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>-1282025.3692</v>
+        <v>34.36666666666665</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="C26" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="D26" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="E26" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="F26" t="n">
-        <v>68623.0563</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>-1282025.3692</v>
+        <v>34.36666666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1303,7 +1410,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1312,39 +1421,40 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="C27" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="D27" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="E27" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="F27" t="n">
-        <v>529.3967</v>
+        <v>2155.4861</v>
       </c>
       <c r="G27" t="n">
-        <v>-1281495.9725</v>
+        <v>34.33333333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1353,28 +1463,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D28" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E28" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>12233.5451</v>
       </c>
       <c r="G28" t="n">
-        <v>-1281485.9725</v>
+        <v>34.16666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1383,9 +1494,11 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>34.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,28 +1507,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="C29" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D29" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="E29" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F29" t="n">
-        <v>14888.6943</v>
+        <v>211161.7998</v>
       </c>
       <c r="G29" t="n">
-        <v>-1296374.6668</v>
+        <v>34.13333333333332</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1424,9 +1538,11 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>34.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1435,37 +1551,42 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="D30" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="E30" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="F30" t="n">
-        <v>100000</v>
+        <v>5705.1453</v>
       </c>
       <c r="G30" t="n">
-        <v>-1396374.6668</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,28 +1595,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="C31" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D31" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="E31" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F31" t="n">
-        <v>6720.1923</v>
+        <v>1605.0743</v>
       </c>
       <c r="G31" t="n">
-        <v>-1389654.4745</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1504,7 +1626,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1513,28 +1637,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="D32" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="E32" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="F32" t="n">
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-1389644.4745</v>
+        <v>34.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1668,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,28 +1679,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D33" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E33" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F33" t="n">
-        <v>13000</v>
+        <v>1460.9621</v>
       </c>
       <c r="G33" t="n">
-        <v>-1402644.4745</v>
+        <v>34.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1582,7 +1710,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1591,28 +1721,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D34" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E34" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="F34" t="n">
-        <v>58916.6388</v>
+        <v>48.6893</v>
       </c>
       <c r="G34" t="n">
-        <v>-1343727.8357</v>
+        <v>34.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1621,7 +1752,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,28 +1763,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D35" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="E35" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F35" t="n">
-        <v>13196.567</v>
+        <v>7261.6902</v>
       </c>
       <c r="G35" t="n">
-        <v>-1343727.8357</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1660,7 +1794,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1669,28 +1805,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="D36" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="E36" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="F36" t="n">
-        <v>92.4853</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-1343727.8357</v>
+        <v>34.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1699,7 +1836,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,28 +1847,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C37" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D37" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E37" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
-        <v>-1343717.8357</v>
+        <v>34.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1738,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,28 +1889,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="C38" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="E38" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="F38" t="n">
-        <v>9980</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>-1343717.8357</v>
+        <v>34.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1777,7 +1920,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,28 +1931,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C39" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E39" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F39" t="n">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="G39" t="n">
-        <v>-1343699.8357</v>
+        <v>34.33333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1816,7 +1962,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,6 +1973,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1834,19 +1983,19 @@
         <v>34.1</v>
       </c>
       <c r="C40" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D40" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E40" t="n">
         <v>34.1</v>
       </c>
       <c r="F40" t="n">
-        <v>11310.995</v>
+        <v>28</v>
       </c>
       <c r="G40" t="n">
-        <v>-1343699.8357</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1855,7 +2004,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,28 +2015,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C41" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D41" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E41" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F41" t="n">
-        <v>9409.840700000001</v>
+        <v>188</v>
       </c>
       <c r="G41" t="n">
-        <v>-1343699.8357</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1894,7 +2046,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,28 +2057,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="C42" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D42" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E42" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>50000</v>
       </c>
       <c r="G42" t="n">
-        <v>-1343681.8357</v>
+        <v>34.43333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1933,7 +2088,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,28 +2099,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="D43" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="E43" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>137782.1153</v>
       </c>
       <c r="G43" t="n">
-        <v>-1348681.8357</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1972,7 +2130,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,28 +2141,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E44" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="F44" t="n">
-        <v>4437.5294</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-1348681.8357</v>
+        <v>34.43333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2011,7 +2172,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,28 +2183,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="E45" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="F45" t="n">
-        <v>9000</v>
+        <v>18</v>
       </c>
       <c r="G45" t="n">
-        <v>-1348681.8357</v>
+        <v>34.43333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2050,7 +2214,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2059,28 +2225,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="C46" t="n">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="D46" t="n">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="E46" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>12029.869</v>
       </c>
       <c r="G46" t="n">
-        <v>-1353681.8357</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2089,7 +2256,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,28 +2267,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="D47" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1722</v>
       </c>
       <c r="G47" t="n">
-        <v>-1353671.8357</v>
+        <v>34.43333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2128,7 +2298,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2137,28 +2309,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D48" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E48" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1039.3235</v>
+        <v>322.0551</v>
       </c>
       <c r="G48" t="n">
-        <v>-1353671.8357</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2167,7 +2340,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,28 +2351,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E49" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1926.7058</v>
+        <v>4107</v>
       </c>
       <c r="G49" t="n">
-        <v>-1353671.8357</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2206,7 +2382,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,28 +2393,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="D50" t="n">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="E50" t="n">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>1983.6374</v>
+        <v>2920</v>
       </c>
       <c r="G50" t="n">
-        <v>-1353671.8357</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2245,7 +2424,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,28 +2435,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C51" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D51" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E51" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2298.651</v>
+        <v>14.9996</v>
       </c>
       <c r="G51" t="n">
-        <v>-1351373.1847</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2284,7 +2466,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2293,28 +2477,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C52" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D52" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E52" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F52" t="n">
-        <v>12233.5451</v>
+        <v>45.2598</v>
       </c>
       <c r="G52" t="n">
-        <v>-1351373.1847</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2323,7 +2508,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,28 +2519,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E53" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="F53" t="n">
-        <v>57.0175</v>
+        <v>150</v>
       </c>
       <c r="G53" t="n">
-        <v>-1351316.1672</v>
+        <v>34.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2362,7 +2550,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,28 +2561,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C54" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="D54" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E54" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1290.3225</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>-1352606.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2401,7 +2592,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,28 +2603,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C55" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D55" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E55" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F55" t="n">
-        <v>23900.231</v>
+        <v>17.889</v>
       </c>
       <c r="G55" t="n">
-        <v>-1352606.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2440,7 +2634,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2449,28 +2645,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C56" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="D56" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E56" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="F56" t="n">
-        <v>3571.299</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>-1352606.4897</v>
+        <v>34.56666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2479,7 +2676,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,28 +2687,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C57" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D57" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E57" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F57" t="n">
-        <v>34279.819</v>
+        <v>29.996</v>
       </c>
       <c r="G57" t="n">
-        <v>-1352606.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2518,7 +2718,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,28 +2729,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C58" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="D58" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="E58" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="F58" t="n">
-        <v>3334</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-1349272.4897</v>
+        <v>34.56666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2557,7 +2760,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2566,28 +2771,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C59" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D59" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E59" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>17.9965</v>
       </c>
       <c r="G59" t="n">
-        <v>-1349287.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2596,7 +2802,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2605,28 +2813,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C60" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D60" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E60" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>16.9986</v>
       </c>
       <c r="G60" t="n">
-        <v>-1349287.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2635,7 +2844,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,28 +2855,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C61" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D61" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E61" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F61" t="n">
-        <v>20018</v>
+        <v>35371.4521</v>
       </c>
       <c r="G61" t="n">
-        <v>-1349287.4897</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2674,7 +2886,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,28 +2897,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C62" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D62" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E62" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F62" t="n">
-        <v>34</v>
+        <v>399.9588</v>
       </c>
       <c r="G62" t="n">
-        <v>-1349287.4897</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2713,7 +2928,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,28 +2939,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F63" t="n">
-        <v>24</v>
+        <v>25.6693</v>
       </c>
       <c r="G63" t="n">
-        <v>-1349287.4897</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2752,7 +2970,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,28 +2981,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C64" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D64" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E64" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F64" t="n">
-        <v>37.9684</v>
+        <v>161.9661</v>
       </c>
       <c r="G64" t="n">
-        <v>-1349287.4897</v>
+        <v>34.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2791,7 +3012,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2800,28 +3023,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="C65" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D65" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="E65" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="F65" t="n">
-        <v>373</v>
+        <v>149.9963</v>
       </c>
       <c r="G65" t="n">
-        <v>-1348914.4897</v>
+        <v>34.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2830,7 +3054,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,28 +3065,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="C66" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="D66" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E66" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="F66" t="n">
-        <v>12900</v>
+        <v>114.7745</v>
       </c>
       <c r="G66" t="n">
-        <v>-1336014.4897</v>
+        <v>34.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2869,7 +3096,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,13 +3107,14 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="C67" t="n">
         <v>34.6</v>
@@ -2893,13 +3123,13 @@
         <v>34.6</v>
       </c>
       <c r="E67" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="G67" t="n">
-        <v>-1335914.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2908,7 +3138,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,28 +3149,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C68" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D68" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E68" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>1245.963</v>
       </c>
       <c r="G68" t="n">
-        <v>-1335925.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2947,7 +3180,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,28 +3191,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C69" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D69" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E69" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="F69" t="n">
-        <v>2155.4861</v>
+        <v>1248.9963</v>
       </c>
       <c r="G69" t="n">
-        <v>-1335925.4897</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2986,7 +3222,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,28 +3233,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C70" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D70" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E70" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F70" t="n">
-        <v>12233.5451</v>
+        <v>41.62</v>
       </c>
       <c r="G70" t="n">
-        <v>-1348159.0348</v>
+        <v>34.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3025,7 +3264,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,28 +3275,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="C71" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D71" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="E71" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F71" t="n">
-        <v>211161.7998</v>
+        <v>174.808</v>
       </c>
       <c r="G71" t="n">
-        <v>-1348159.0348</v>
+        <v>34.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3064,7 +3306,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,28 +3317,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C72" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="D72" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E72" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F72" t="n">
-        <v>5705.1453</v>
+        <v>60</v>
       </c>
       <c r="G72" t="n">
-        <v>-1348159.0348</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3103,7 +3348,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,28 +3359,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C73" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E73" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1605.0743</v>
+        <v>425</v>
       </c>
       <c r="G73" t="n">
-        <v>-1348159.0348</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3142,7 +3390,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,28 +3401,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C74" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D74" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E74" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>-1348149.0348</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3181,7 +3432,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,28 +3443,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="C75" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="E75" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1460.9621</v>
+        <v>214.96</v>
       </c>
       <c r="G75" t="n">
-        <v>-1349609.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3220,7 +3474,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,28 +3485,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C76" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D76" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E76" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F76" t="n">
-        <v>48.6893</v>
+        <v>178.998</v>
       </c>
       <c r="G76" t="n">
-        <v>-1349609.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3259,7 +3516,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3268,28 +3527,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C77" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D77" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E77" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F77" t="n">
-        <v>7261.6902</v>
+        <v>60</v>
       </c>
       <c r="G77" t="n">
-        <v>-1349609.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3298,7 +3558,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,28 +3569,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C78" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D78" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E78" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>-1349599.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3337,7 +3600,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,28 +3611,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C79" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D79" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="E79" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F79" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G79" t="n">
-        <v>-1349618.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3376,7 +3642,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,28 +3653,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C80" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D80" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E80" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>32.6666</v>
       </c>
       <c r="G80" t="n">
-        <v>-1349600.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3415,7 +3684,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,13 +3695,14 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C81" t="n">
         <v>34.5</v>
@@ -3439,13 +3711,13 @@
         <v>34.5</v>
       </c>
       <c r="E81" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F81" t="n">
-        <v>128</v>
+        <v>194.8577</v>
       </c>
       <c r="G81" t="n">
-        <v>-1349472.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3454,7 +3726,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,13 +3737,14 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C82" t="n">
         <v>34.5</v>
@@ -3478,13 +3753,13 @@
         <v>34.5</v>
       </c>
       <c r="E82" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F82" t="n">
-        <v>28</v>
+        <v>1581.06</v>
       </c>
       <c r="G82" t="n">
-        <v>-1349472.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3493,7 +3768,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,28 +3779,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C83" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D83" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E83" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F83" t="n">
-        <v>188</v>
+        <v>82.8969</v>
       </c>
       <c r="G83" t="n">
-        <v>-1349660.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3532,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,28 +3821,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C84" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E84" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F84" t="n">
-        <v>50000</v>
+        <v>82.89190000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-1349660.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3571,7 +3852,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,28 +3863,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C85" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E85" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F85" t="n">
-        <v>137782.1153</v>
+        <v>26.6259</v>
       </c>
       <c r="G85" t="n">
-        <v>-1349660.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3610,7 +3894,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,6 +3905,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3637,10 +3924,10 @@
         <v>34.5</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G86" t="n">
-        <v>-1349650.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3649,7 +3936,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,28 +3947,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C87" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D87" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E87" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F87" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G87" t="n">
-        <v>-1349668.9969</v>
+        <v>34.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3688,7 +3978,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3697,28 +3989,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="C88" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D88" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="E88" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F88" t="n">
-        <v>12029.869</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>-1337639.1279</v>
+        <v>34.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3727,7 +4020,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3736,45 +4031,49 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="C89" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D89" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E89" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1722</v>
+        <v>199</v>
       </c>
       <c r="G89" t="n">
-        <v>-1339361.1279</v>
+        <v>34.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>34.1</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
-      </c>
+        <v>1.006730205278592</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3793,27 +4092,24 @@
         <v>34.5</v>
       </c>
       <c r="F90" t="n">
-        <v>322.0551</v>
+        <v>34</v>
       </c>
       <c r="G90" t="n">
-        <v>-1339039.0728</v>
+        <v>34.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3832,66 +4128,60 @@
         <v>34.5</v>
       </c>
       <c r="F91" t="n">
-        <v>4107</v>
+        <v>31</v>
       </c>
       <c r="G91" t="n">
-        <v>-1339039.0728</v>
+        <v>34.50000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C92" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D92" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E92" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F92" t="n">
-        <v>2920</v>
+        <v>125</v>
       </c>
       <c r="G92" t="n">
-        <v>-1336119.0728</v>
+        <v>34.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3910,66 +4200,60 @@
         <v>34.5</v>
       </c>
       <c r="F93" t="n">
-        <v>14.9996</v>
+        <v>19</v>
       </c>
       <c r="G93" t="n">
-        <v>-1336134.0724</v>
+        <v>34.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C94" t="n">
         <v>34.5</v>
       </c>
       <c r="D94" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E94" t="n">
         <v>34.5</v>
       </c>
       <c r="F94" t="n">
-        <v>45.2598</v>
+        <v>1410.9986</v>
       </c>
       <c r="G94" t="n">
-        <v>-1336134.0724</v>
+        <v>34.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3988,66 +4272,60 @@
         <v>34.5</v>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G95" t="n">
-        <v>-1336134.0724</v>
+        <v>34.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C96" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D96" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E96" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>123.1104</v>
       </c>
       <c r="G96" t="n">
-        <v>-1336124.0724</v>
+        <v>34.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4066,66 +4344,60 @@
         <v>34.5</v>
       </c>
       <c r="F97" t="n">
-        <v>17.889</v>
+        <v>43.6029</v>
       </c>
       <c r="G97" t="n">
-        <v>-1336141.9614</v>
+        <v>34.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C98" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D98" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E98" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>3471.0774</v>
       </c>
       <c r="G98" t="n">
-        <v>-1336131.9614</v>
+        <v>34.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4135,75 +4407,69 @@
         <v>34.5</v>
       </c>
       <c r="C99" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D99" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E99" t="n">
         <v>34.5</v>
       </c>
       <c r="F99" t="n">
-        <v>29.996</v>
+        <v>34.657</v>
       </c>
       <c r="G99" t="n">
-        <v>-1336161.9574</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E100" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>46.657</v>
       </c>
       <c r="G100" t="n">
-        <v>-1336151.9574</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4222,27 +4488,24 @@
         <v>34.5</v>
       </c>
       <c r="F101" t="n">
-        <v>17.9965</v>
+        <v>31.8285</v>
       </c>
       <c r="G101" t="n">
-        <v>-1336169.9539</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4261,27 +4524,24 @@
         <v>34.5</v>
       </c>
       <c r="F102" t="n">
-        <v>16.9986</v>
+        <v>11.8285</v>
       </c>
       <c r="G102" t="n">
-        <v>-1336169.9539</v>
+        <v>34.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4291,36 +4551,33 @@
         <v>34.5</v>
       </c>
       <c r="C103" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D103" t="n">
         <v>34.5</v>
       </c>
       <c r="E103" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F103" t="n">
-        <v>35371.4521</v>
+        <v>11.8285</v>
       </c>
       <c r="G103" t="n">
-        <v>-1371541.406</v>
+        <v>34.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4339,27 +4596,24 @@
         <v>34.5</v>
       </c>
       <c r="F104" t="n">
-        <v>399.9588</v>
+        <v>146.1111</v>
       </c>
       <c r="G104" t="n">
-        <v>-1371141.4472</v>
+        <v>34.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4369,36 +4623,33 @@
         <v>34.5</v>
       </c>
       <c r="C105" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D105" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="E105" t="n">
         <v>34.5</v>
       </c>
       <c r="F105" t="n">
-        <v>25.6693</v>
+        <v>389.0111</v>
       </c>
       <c r="G105" t="n">
-        <v>-1371141.4472</v>
+        <v>34.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4417,66 +4668,60 @@
         <v>34.5</v>
       </c>
       <c r="F106" t="n">
-        <v>161.9661</v>
+        <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>-1371141.4472</v>
+        <v>34.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>186</v>
+      </c>
+      <c r="G107" t="n">
         <v>34.6</v>
       </c>
-      <c r="C107" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>149.9963</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1371141.4472</v>
-      </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4495,66 +4740,60 @@
         <v>34.5</v>
       </c>
       <c r="F108" t="n">
-        <v>114.7745</v>
+        <v>55.67</v>
       </c>
       <c r="G108" t="n">
-        <v>-1371141.4472</v>
+        <v>34.50000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C109" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D109" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E109" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F109" t="n">
-        <v>475</v>
+        <v>130</v>
       </c>
       <c r="G109" t="n">
-        <v>-1370666.4472</v>
+        <v>34.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4573,27 +4812,24 @@
         <v>34.5</v>
       </c>
       <c r="F110" t="n">
-        <v>1245.963</v>
+        <v>56.5701</v>
       </c>
       <c r="G110" t="n">
-        <v>-1371912.4102</v>
+        <v>34.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4612,27 +4848,24 @@
         <v>34.5</v>
       </c>
       <c r="F111" t="n">
-        <v>1248.9963</v>
+        <v>31.6665</v>
       </c>
       <c r="G111" t="n">
-        <v>-1371912.4102</v>
+        <v>34.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4645,1537 +4878,30 @@
         <v>34.5</v>
       </c>
       <c r="D112" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E112" t="n">
         <v>34.5</v>
       </c>
       <c r="F112" t="n">
-        <v>41.62</v>
+        <v>128.8281</v>
       </c>
       <c r="G112" t="n">
-        <v>-1371912.4102</v>
+        <v>34.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C113" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E113" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>174.808</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1371912.4102</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>60</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1371852.4102</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>425</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>214.96</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>178.998</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>60</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>37</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>32.6666</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>194.8577</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1581.06</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>82.8969</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>82.89190000000001</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>26.6259</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>30</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>44</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>30</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-1372247.4102</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>199</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>34</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>31</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>125</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>19</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1410.9986</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>114</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C138" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>123.1104</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C139" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>43.6029</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C140" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>3471.0774</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E141" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>34.657</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1372411.7532</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>46.657</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>31.8285</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>11.8285</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>11.8285</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>146.1111</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>389.0111</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1372069.3991</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>30</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>186</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>130</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>56.5701</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>31.6665</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D154" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>128.8281</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,22 +2266,19 @@
         <v>-1281485.9725</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="J57" t="n">
         <v>33.7</v>
       </c>
-      <c r="K57" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2476,26 +2303,23 @@
         <v>-1296374.6668</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="J58" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2520,26 +2344,21 @@
         <v>-1396374.6668</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>33.7</v>
       </c>
-      <c r="K59" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,26 +2383,21 @@
         <v>-1389654.4745</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2610,22 +2424,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2652,22 +2463,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2694,22 +2502,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2736,22 +2541,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2778,22 +2580,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,22 +2619,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2860,26 +2656,21 @@
         <v>-1343717.8357</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K67" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2904,26 +2695,21 @@
         <v>-1343699.8357</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2950,22 +2736,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,22 +2775,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3034,22 +2814,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3076,22 +2853,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3118,22 +2892,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,22 +2931,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3202,22 +2970,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3242,26 +3007,21 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3286,26 +3046,21 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>34</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>33.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3332,22 +3087,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3372,24 +3124,23 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>34</v>
+      </c>
+      <c r="J79" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3416,22 +3167,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3458,22 +3206,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3500,22 +3245,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3540,1416 +3282,1257 @@
         <v>-1352606.4897</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.00686943620178</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>23900.231</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1352606.4897</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3571.299</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1352606.4897</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>34279.819</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1352606.4897</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3334</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1349272.4897</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20018</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>34</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>37.9684</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1349287.4897</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>373</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1348914.4897</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12900</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1336014.4897</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1335914.4897</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1335925.4897</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2155.4861</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1335925.4897</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12233.5451</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1348159.0348</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>211161.7998</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1348159.0348</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5705.1453</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1348159.0348</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1605.0743</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1348159.0348</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1348149.0348</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1460.9621</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1349609.9969</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>48.6893</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1349609.9969</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7261.6902</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1349609.9969</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1349599.9969</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>23900.231</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1352606.4897</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1349618.9969</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3571.299</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1352606.4897</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1349600.9969</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>34279.819</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1352606.4897</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>128</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1349472.9969</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3334</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1349272.4897</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>28</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1349472.9969</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>15</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>188</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1349660.9969</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>15</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1349660.9969</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>20018</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>137782.1153</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1349660.9969</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>34</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1349650.9969</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>18</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1349668.9969</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>37.9684</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>373</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1348914.4897</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>12900</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1336014.4897</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E96" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F96" t="n">
-        <v>100</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-1335914.4897</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1335925.4897</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2155.4861</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1335925.4897</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>12233.5451</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>211161.7998</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5705.1453</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>34.4</v>
       </c>
-      <c r="E102" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1605.0743</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="C117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E117" t="n">
         <v>34.4</v>
       </c>
-      <c r="C103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>10</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1348149.0348</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1460.9621</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>48.6893</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E106" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7261.6902</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>10</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1349599.9969</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>19</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1349618.9969</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>18</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1349600.9969</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F110" t="n">
-        <v>128</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1349472.9969</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>28</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1349472.9969</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="F117" t="n">
+        <v>12029.869</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1337639.1279</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1.018738872403561</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>188</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>137782.1153</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1349650.9969</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1349668.9969</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>12029.869</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1337639.1279</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.006730205278592</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,18 +4557,15 @@
         <v>-1339361.1279</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5012,16 +4592,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5048,16 +4625,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5084,16 +4658,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5120,16 +4691,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5156,16 +4724,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5192,16 +4757,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5228,16 +4790,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5262,18 +4821,15 @@
         <v>-1336141.9614</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5298,18 +4854,15 @@
         <v>-1336131.9614</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5334,18 +4887,15 @@
         <v>-1336161.9574</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5370,18 +4920,15 @@
         <v>-1336151.9574</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5406,18 +4953,15 @@
         <v>-1336169.9539</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5444,16 +4988,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5480,16 +5021,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5516,16 +5054,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5552,16 +5087,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5588,16 +5120,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5624,16 +5153,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5660,16 +5186,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5696,16 +5219,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5732,16 +5252,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5768,16 +5285,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5804,16 +5318,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5840,16 +5351,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5876,16 +5384,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5912,16 +5417,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5948,16 +5450,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5984,16 +5483,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6020,16 +5516,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6056,16 +5549,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6092,16 +5582,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6128,16 +5615,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6164,16 +5648,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6200,16 +5681,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6236,16 +5714,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6272,16 +5747,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6308,16 +5780,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6344,16 +5813,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6380,16 +5846,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6416,16 +5879,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6452,16 +5912,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6488,16 +5945,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6524,16 +5978,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6560,16 +6011,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6596,16 +6044,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6632,16 +6077,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6666,18 +6108,15 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6704,16 +6143,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6740,16 +6176,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6776,16 +6209,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6812,16 +6242,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6848,16 +6275,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6884,16 +6308,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6920,16 +6341,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6956,16 +6374,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6992,16 +6407,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7028,16 +6440,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7064,16 +6473,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7100,16 +6506,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7136,16 +6539,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7172,16 +6572,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7208,16 +6605,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7244,16 +6638,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7280,16 +6671,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7316,18 +6704,15 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-215315.2897</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-215325.2897</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-165304.8696</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-195304.8696</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-196744.8696</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-196734.8696</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-263986.4774</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-292436.3487</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-431072.8626000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-430780.465</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-430795.465</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-430610.465</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-462553.3422</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-460193.7294</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-510194.4811</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2266,14 +2266,10 @@
         <v>-1281485.9725</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2303,19 +2299,11 @@
         <v>-1296374.6668</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2347,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2386,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2425,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2464,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2503,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2542,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2581,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2620,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2659,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2698,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2737,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2776,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2815,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2854,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2893,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2932,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2971,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3010,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3049,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3088,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3124,19 +2992,11 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>34</v>
-      </c>
-      <c r="J79" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3168,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3207,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3282,19 +3124,13 @@
         <v>-1352606.4897</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.00686943620178</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3354,7 +3190,7 @@
         <v>-1352606.4897</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3552,14 +3388,10 @@
         <v>-1349287.4897</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3589,19 +3421,11 @@
         <v>-1349287.4897</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3702,7 +3520,7 @@
         <v>-1336014.4897</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>34.2</v>
@@ -3778,7 +3596,7 @@
         <v>-1335925.4897</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -3883,11 +3701,17 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34.1</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3918,9 +3742,15 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>34.1</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3951,9 +3781,15 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>34.1</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3818,17 @@
         <v>-1348149.0348</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.1</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +3857,17 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4048,15 +3896,17 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>34.1</v>
       </c>
-      <c r="J105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4085,17 +3935,15 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>34.1</v>
       </c>
-      <c r="J106" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4126,14 +3974,12 @@
         <v>-1349599.9969</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>34.1</v>
       </c>
-      <c r="J107" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,12 +4013,12 @@
         <v>-1349618.9969</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>34.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,12 +4052,12 @@
         <v>-1349600.9969</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>34.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,12 +4091,12 @@
         <v>-1349472.9969</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>34.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,9 +4133,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,9 +4170,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,9 +4207,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,12 +4241,10 @@
         <v>-1349660.9969</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,12 +4278,10 @@
         <v>-1349650.9969</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,12 +4315,10 @@
         <v>-1349668.9969</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,19 +4352,17 @@
         <v>-1337639.1279</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.006730205278592</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4557,11 +4389,15 @@
         <v>-1339361.1279</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4594,7 +4430,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4627,7 +4467,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4660,7 +4504,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4541,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4726,7 +4578,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4759,7 +4615,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4792,7 +4652,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4685,15 @@
         <v>-1336141.9614</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4722,15 @@
         <v>-1336131.9614</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +4759,15 @@
         <v>-1336161.9574</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4796,15 @@
         <v>-1336151.9574</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +4833,15 @@
         <v>-1336169.9539</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4990,7 +4874,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5023,7 +4911,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5056,7 +4948,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5089,7 +4985,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5122,7 +5022,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5155,7 +5059,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5188,7 +5096,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5221,7 +5133,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +5170,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5287,7 +5207,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5320,7 +5244,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5353,7 +5281,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5386,7 +5318,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5419,7 +5355,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5392,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5485,7 +5429,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5466,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5551,7 +5503,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5584,7 +5540,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5617,7 +5577,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5650,7 +5614,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5683,7 +5651,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5716,7 +5688,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5749,7 +5725,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5782,7 +5762,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5815,7 +5799,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5836,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5881,7 +5873,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5914,7 +5910,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5947,7 +5947,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5980,7 +5984,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6013,7 +6021,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6046,7 +6058,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6079,7 +6095,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +6128,15 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6145,7 +6169,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6178,7 +6206,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6211,7 +6243,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6244,7 +6280,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6277,7 +6317,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +6350,16 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -6504,7 +6550,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6603,7 +6649,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6713,6 +6759,6 @@
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-215315.2897</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-215325.2897</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-165304.8696</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-195304.8696</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-196744.8696</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-196734.8696</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-206648.1856</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-263986.4774</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-292436.3487</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-431628.8596</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-431072.8626000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-430780.465</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-430795.465</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-430610.465</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-461373.5358</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3520,14 +3520,10 @@
         <v>-1336014.4897</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3560,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3701,17 +3685,11 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,17 +3718,11 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3779,17 +3751,11 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3818,17 +3784,11 @@
         <v>-1348149.0348</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3857,17 +3817,11 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3896,17 +3850,11 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3935,17 +3883,11 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3974,17 +3916,11 @@
         <v>-1349599.9969</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4013,17 +3949,11 @@
         <v>-1349618.9969</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4052,17 +3982,11 @@
         <v>-1349600.9969</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4091,17 +4015,11 @@
         <v>-1349472.9969</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4134,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4208,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4356,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4393,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4430,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4578,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4652,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4800,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4837,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4874,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4948,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4985,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5022,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5207,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5244,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5355,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5429,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5799,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5836,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5873,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5910,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5984,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6021,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6058,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6095,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6132,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6169,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6206,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6243,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6350,16 +6028,14 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
       <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -6550,7 +6226,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6583,10 +6259,14 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6616,11 +6296,19 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J179" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6337,17 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6715,10 +6409,14 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J182" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6751,14 +6449,20 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -1507,7 +1507,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-462553.3422</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-461373.5358</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-460193.7294</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-510194.4811</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3454,10 +3454,14 @@
         <v>-1349287.4897</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3487,11 +3491,19 @@
         <v>-1348914.4897</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3532,19 @@
         <v>-1336014.4897</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3652,10 +3672,14 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3685,11 +3709,19 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3750,19 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3791,19 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3832,19 @@
         <v>-1348149.0348</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3873,19 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3914,19 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3955,19 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3996,19 @@
         <v>-1349599.9969</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4076,19 @@
         <v>-1349600.9969</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6028,19 @@
         <v>-1372247.4102</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J159" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,13 +6069,19 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>1.003771929824561</v>
       </c>
       <c r="M160" t="inlineStr"/>
     </row>
@@ -5698,7 +6108,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6141,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6174,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6207,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6240,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6273,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6306,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6339,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,10 +6372,14 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J169" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -5995,11 +6409,19 @@
         <v>-1372411.7532</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J170" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6450,17 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6489,19 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J172" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6530,19 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6571,19 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J174" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6612,17 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6651,19 @@
         <v>-1372069.3991</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J176" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6692,17 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6267,7 +6739,11 @@
       <c r="J178" t="n">
         <v>34.5</v>
       </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,17 +6772,15 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>34.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>34.5</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6337,7 +6811,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
@@ -6345,7 +6819,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6376,13 +6850,19 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6446,7 +6926,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">

--- a/BackTest/2019-10-27 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-27 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-215315.2897</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-215325.2897</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-215325.2897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>-215325.2897</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>50020.4201</v>
       </c>
       <c r="G6" t="n">
-        <v>-165304.8696</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>30000</v>
       </c>
       <c r="G7" t="n">
-        <v>-195304.8696</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>-195304.8696</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1420</v>
       </c>
       <c r="G9" t="n">
-        <v>-196724.8696</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-196714.8696</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>-196744.8696</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-196734.8696</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9913.316000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-206648.1856</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2701.7999</v>
       </c>
       <c r="G14" t="n">
-        <v>-206648.1856</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6733.8771</v>
       </c>
       <c r="G15" t="n">
-        <v>-206648.1856</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>687.7557</v>
       </c>
       <c r="G16" t="n">
-        <v>-206648.1856</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>545.1824</v>
       </c>
       <c r="G17" t="n">
-        <v>-206648.1856</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-206638.1856</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>769.4736</v>
       </c>
       <c r="G19" t="n">
-        <v>-206638.1856</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>21655.733</v>
       </c>
       <c r="G20" t="n">
-        <v>-228293.9186</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1121.2169</v>
       </c>
       <c r="G21" t="n">
-        <v>-228293.9186</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>35692.5588</v>
       </c>
       <c r="G22" t="n">
-        <v>-263986.4774</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>28449.8713</v>
       </c>
       <c r="G23" t="n">
-        <v>-292436.3487</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>139192.5109</v>
       </c>
       <c r="G24" t="n">
-        <v>-431628.8596</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>106468.7735</v>
       </c>
       <c r="G25" t="n">
-        <v>-431628.8596</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>-431628.8596</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>565.997</v>
       </c>
       <c r="G27" t="n">
-        <v>-431062.8626000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-431072.8626000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>292.3976</v>
       </c>
       <c r="G29" t="n">
-        <v>-430780.465</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>-430795.465</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>185</v>
       </c>
       <c r="G31" t="n">
-        <v>-430610.465</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>18057.1228</v>
       </c>
       <c r="G32" t="n">
-        <v>-412553.3422</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-412553.3422</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>736.5497</v>
       </c>
       <c r="G34" t="n">
-        <v>-412553.3422</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>13458.7417</v>
       </c>
       <c r="G35" t="n">
-        <v>-412553.3422</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>50000</v>
       </c>
       <c r="G36" t="n">
-        <v>-462553.3422</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1179.8064</v>
       </c>
       <c r="G37" t="n">
-        <v>-461373.5358</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1179.8064</v>
       </c>
       <c r="G38" t="n">
-        <v>-460193.7294</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>50000.7517</v>
       </c>
       <c r="G39" t="n">
-        <v>-510194.4811</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>387689.8719</v>
       </c>
       <c r="G40" t="n">
-        <v>-897884.3530000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>-897884.3530000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>18017.2914</v>
       </c>
       <c r="G42" t="n">
-        <v>-897884.3530000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-897874.3530000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>49079</v>
       </c>
       <c r="G44" t="n">
-        <v>-897874.3530000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>227337.6667</v>
       </c>
       <c r="G45" t="n">
-        <v>-1125212.0197</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-1125202.0197</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1522.771</v>
       </c>
       <c r="G47" t="n">
-        <v>-1126724.7907</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>-1126624.7907</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>507.8762</v>
       </c>
       <c r="G49" t="n">
-        <v>-1127132.6669</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2087.4807</v>
       </c>
       <c r="G50" t="n">
-        <v>-1125045.1862</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>69400.183</v>
       </c>
       <c r="G51" t="n">
-        <v>-1194445.3692</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>35001.3382</v>
       </c>
       <c r="G52" t="n">
-        <v>-1194445.3692</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>68623.0563</v>
       </c>
       <c r="G53" t="n">
-        <v>-1194445.3692</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>87580</v>
       </c>
       <c r="G54" t="n">
-        <v>-1282025.3692</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>68623.0563</v>
       </c>
       <c r="G55" t="n">
-        <v>-1282025.3692</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,19 @@
         <v>529.3967</v>
       </c>
       <c r="G56" t="n">
-        <v>-1281495.9725</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>33.6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2097,21 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-1281485.9725</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2133,21 @@
         <v>14888.6943</v>
       </c>
       <c r="G58" t="n">
-        <v>-1296374.6668</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>100000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1396374.6668</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>6720.1923</v>
       </c>
       <c r="G60" t="n">
-        <v>-1389654.4745</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,19 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-1389644.4745</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2263,21 @@
         <v>13000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1402644.4745</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2299,21 @@
         <v>58916.6388</v>
       </c>
       <c r="G63" t="n">
-        <v>-1343727.8357</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2335,23 @@
         <v>13196.567</v>
       </c>
       <c r="G64" t="n">
-        <v>-1343727.8357</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2373,23 @@
         <v>92.4853</v>
       </c>
       <c r="G65" t="n">
-        <v>-1343727.8357</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2411,23 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-1343717.8357</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2449,21 @@
         <v>9980</v>
       </c>
       <c r="G67" t="n">
-        <v>-1343717.8357</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2485,21 @@
         <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>-1343699.8357</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2521,21 @@
         <v>11310.995</v>
       </c>
       <c r="G69" t="n">
-        <v>-1343699.8357</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2557,21 @@
         <v>9409.840700000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-1343699.8357</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2593,21 @@
         <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>-1343681.8357</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2629,21 @@
         <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1348681.8357</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2665,21 @@
         <v>4437.5294</v>
       </c>
       <c r="G73" t="n">
-        <v>-1348681.8357</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2701,21 @@
         <v>9000</v>
       </c>
       <c r="G74" t="n">
-        <v>-1348681.8357</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2737,21 @@
         <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>-1353681.8357</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2773,21 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-1353671.8357</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2809,21 @@
         <v>1039.3235</v>
       </c>
       <c r="G77" t="n">
-        <v>-1353671.8357</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2845,21 @@
         <v>1926.7058</v>
       </c>
       <c r="G78" t="n">
-        <v>-1353671.8357</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2881,21 @@
         <v>1983.6374</v>
       </c>
       <c r="G79" t="n">
-        <v>-1353671.8357</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2917,21 @@
         <v>2298.651</v>
       </c>
       <c r="G80" t="n">
-        <v>-1351373.1847</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2953,21 @@
         <v>12233.5451</v>
       </c>
       <c r="G81" t="n">
-        <v>-1351373.1847</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2989,21 @@
         <v>57.0175</v>
       </c>
       <c r="G82" t="n">
-        <v>-1351316.1672</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3025,23 @@
         <v>1290.3225</v>
       </c>
       <c r="G83" t="n">
-        <v>-1352606.4897</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>34.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3063,21 @@
         <v>23900.231</v>
       </c>
       <c r="G84" t="n">
-        <v>-1352606.4897</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3099,23 @@
         <v>3571.299</v>
       </c>
       <c r="G85" t="n">
-        <v>-1352606.4897</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>34.1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3137,23 @@
         <v>34279.819</v>
       </c>
       <c r="G86" t="n">
-        <v>-1352606.4897</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>34.1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3175,21 @@
         <v>3334</v>
       </c>
       <c r="G87" t="n">
-        <v>-1349272.4897</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3211,21 @@
         <v>15</v>
       </c>
       <c r="G88" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3247,21 @@
         <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3283,21 @@
         <v>20018</v>
       </c>
       <c r="G90" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3319,21 @@
         <v>34</v>
       </c>
       <c r="G91" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3355,21 @@
         <v>24</v>
       </c>
       <c r="G92" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,22 +3391,21 @@
         <v>37.9684</v>
       </c>
       <c r="G93" t="n">
-        <v>-1349287.4897</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3488,26 +3427,21 @@
         <v>373</v>
       </c>
       <c r="G94" t="n">
-        <v>-1348914.4897</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3529,26 +3463,21 @@
         <v>12900</v>
       </c>
       <c r="G95" t="n">
-        <v>-1336014.4897</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3499,21 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>-1335914.4897</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,18 +3535,21 @@
         <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>-1335925.4897</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3636,18 +3571,21 @@
         <v>2155.4861</v>
       </c>
       <c r="G98" t="n">
-        <v>-1335925.4897</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3669,22 +3607,21 @@
         <v>12233.5451</v>
       </c>
       <c r="G99" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3706,26 +3643,21 @@
         <v>211161.7998</v>
       </c>
       <c r="G100" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3747,26 +3679,21 @@
         <v>5705.1453</v>
       </c>
       <c r="G101" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,26 +3715,21 @@
         <v>1605.0743</v>
       </c>
       <c r="G102" t="n">
-        <v>-1348159.0348</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3829,26 +3751,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-1348149.0348</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3870,26 +3787,21 @@
         <v>1460.9621</v>
       </c>
       <c r="G104" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3911,26 +3823,21 @@
         <v>48.6893</v>
       </c>
       <c r="G105" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3952,26 +3859,21 @@
         <v>7261.6902</v>
       </c>
       <c r="G106" t="n">
-        <v>-1349609.9969</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3993,26 +3895,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-1349599.9969</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4034,24 +3931,21 @@
         <v>19</v>
       </c>
       <c r="G108" t="n">
-        <v>-1349618.9969</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4073,26 +3967,21 @@
         <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>-1349600.9969</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4114,24 +4003,21 @@
         <v>128</v>
       </c>
       <c r="G110" t="n">
-        <v>-1349472.9969</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4153,24 +4039,21 @@
         <v>28</v>
       </c>
       <c r="G111" t="n">
-        <v>-1349472.9969</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4192,24 +4075,21 @@
         <v>188</v>
       </c>
       <c r="G112" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4231,24 +4111,21 @@
         <v>50000</v>
       </c>
       <c r="G113" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4270,24 +4147,21 @@
         <v>137782.1153</v>
       </c>
       <c r="G114" t="n">
-        <v>-1349660.9969</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4309,24 +4183,21 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-1349650.9969</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4348,24 +4219,21 @@
         <v>18</v>
       </c>
       <c r="G116" t="n">
-        <v>-1349668.9969</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4387,24 +4255,21 @@
         <v>12029.869</v>
       </c>
       <c r="G117" t="n">
-        <v>-1337639.1279</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4426,24 +4291,21 @@
         <v>1722</v>
       </c>
       <c r="G118" t="n">
-        <v>-1339361.1279</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4465,24 +4327,21 @@
         <v>322.0551</v>
       </c>
       <c r="G119" t="n">
-        <v>-1339039.0728</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4504,24 +4363,21 @@
         <v>4107</v>
       </c>
       <c r="G120" t="n">
-        <v>-1339039.0728</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4543,24 +4399,21 @@
         <v>2920</v>
       </c>
       <c r="G121" t="n">
-        <v>-1336119.0728</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4582,24 +4435,21 @@
         <v>14.9996</v>
       </c>
       <c r="G122" t="n">
-        <v>-1336134.0724</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4621,24 +4471,21 @@
         <v>45.2598</v>
       </c>
       <c r="G123" t="n">
-        <v>-1336134.0724</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4660,24 +4507,21 @@
         <v>150</v>
       </c>
       <c r="G124" t="n">
-        <v>-1336134.0724</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4699,24 +4543,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-1336124.0724</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4738,24 +4579,21 @@
         <v>17.889</v>
       </c>
       <c r="G126" t="n">
-        <v>-1336141.9614</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4777,24 +4615,21 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-1336131.9614</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4816,24 +4651,21 @@
         <v>29.996</v>
       </c>
       <c r="G128" t="n">
-        <v>-1336161.9574</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4855,24 +4687,21 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>-1336151.9574</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4894,24 +4723,21 @@
         <v>17.9965</v>
       </c>
       <c r="G130" t="n">
-        <v>-1336169.9539</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4933,24 +4759,21 @@
         <v>16.9986</v>
       </c>
       <c r="G131" t="n">
-        <v>-1336169.9539</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4972,24 +4795,21 @@
         <v>35371.4521</v>
       </c>
       <c r="G132" t="n">
-        <v>-1371541.406</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5011,24 +4831,21 @@
         <v>399.9588</v>
       </c>
       <c r="G133" t="n">
-        <v>-1371141.4472</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5050,24 +4867,21 @@
         <v>25.6693</v>
       </c>
       <c r="G134" t="n">
-        <v>-1371141.4472</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5089,24 +4903,21 @@
         <v>161.9661</v>
       </c>
       <c r="G135" t="n">
-        <v>-1371141.4472</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5128,24 +4939,21 @@
         <v>149.9963</v>
       </c>
       <c r="G136" t="n">
-        <v>-1371141.4472</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5167,24 +4975,21 @@
         <v>114.7745</v>
       </c>
       <c r="G137" t="n">
-        <v>-1371141.4472</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5206,24 +5011,21 @@
         <v>475</v>
       </c>
       <c r="G138" t="n">
-        <v>-1370666.4472</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5245,24 +5047,21 @@
         <v>1245.963</v>
       </c>
       <c r="G139" t="n">
-        <v>-1371912.4102</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5284,24 +5083,21 @@
         <v>1248.9963</v>
       </c>
       <c r="G140" t="n">
-        <v>-1371912.4102</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5323,24 +5119,21 @@
         <v>41.62</v>
       </c>
       <c r="G141" t="n">
-        <v>-1371912.4102</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5362,24 +5155,21 @@
         <v>174.808</v>
       </c>
       <c r="G142" t="n">
-        <v>-1371912.4102</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5401,24 +5191,21 @@
         <v>60</v>
       </c>
       <c r="G143" t="n">
-        <v>-1371852.4102</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5440,24 +5227,21 @@
         <v>425</v>
       </c>
       <c r="G144" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5479,24 +5263,21 @@
         <v>18</v>
       </c>
       <c r="G145" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5518,24 +5299,21 @@
         <v>214.96</v>
       </c>
       <c r="G146" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5557,24 +5335,21 @@
         <v>178.998</v>
       </c>
       <c r="G147" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5596,24 +5371,21 @@
         <v>60</v>
       </c>
       <c r="G148" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5635,24 +5407,21 @@
         <v>10000</v>
       </c>
       <c r="G149" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5674,24 +5443,21 @@
         <v>37</v>
       </c>
       <c r="G150" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5713,24 +5479,21 @@
         <v>32.6666</v>
       </c>
       <c r="G151" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5752,24 +5515,21 @@
         <v>194.8577</v>
       </c>
       <c r="G152" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5791,24 +5551,21 @@
         <v>1581.06</v>
       </c>
       <c r="G153" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5830,24 +5587,21 @@
         <v>82.8969</v>
       </c>
       <c r="G154" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5869,24 +5623,21 @@
         <v>82.89190000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5908,24 +5659,21 @@
         <v>26.6259</v>
       </c>
       <c r="G156" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5947,24 +5695,21 @@
         <v>30</v>
       </c>
       <c r="G157" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5986,24 +5731,21 @@
         <v>44</v>
       </c>
       <c r="G158" t="n">
-        <v>-1372277.4102</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6025,26 +5767,21 @@
         <v>30</v>
       </c>
       <c r="G159" t="n">
-        <v>-1372247.4102</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>33.8</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1.024585798816568</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6066,24 +5803,15 @@
         <v>199</v>
       </c>
       <c r="G160" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1.003771929824561</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6105,18 +5833,15 @@
         <v>34</v>
       </c>
       <c r="G161" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6138,18 +5863,15 @@
         <v>31</v>
       </c>
       <c r="G162" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6171,18 +5893,15 @@
         <v>125</v>
       </c>
       <c r="G163" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6204,18 +5923,15 @@
         <v>19</v>
       </c>
       <c r="G164" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6237,18 +5953,15 @@
         <v>1410.9986</v>
       </c>
       <c r="G165" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6270,18 +5983,15 @@
         <v>114</v>
       </c>
       <c r="G166" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6303,18 +6013,15 @@
         <v>123.1104</v>
       </c>
       <c r="G167" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6336,18 +6043,15 @@
         <v>43.6029</v>
       </c>
       <c r="G168" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6369,22 +6073,15 @@
         <v>3471.0774</v>
       </c>
       <c r="G169" t="n">
-        <v>-1372446.4102</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6406,26 +6103,15 @@
         <v>34.657</v>
       </c>
       <c r="G170" t="n">
-        <v>-1372411.7532</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J170" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6447,24 +6133,15 @@
         <v>46.657</v>
       </c>
       <c r="G171" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6486,26 +6163,15 @@
         <v>31.8285</v>
       </c>
       <c r="G172" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J172" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6527,26 +6193,15 @@
         <v>11.8285</v>
       </c>
       <c r="G173" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J173" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6568,26 +6223,15 @@
         <v>11.8285</v>
       </c>
       <c r="G174" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J174" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6609,24 +6253,15 @@
         <v>146.1111</v>
       </c>
       <c r="G175" t="n">
-        <v>-1372458.4102</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6648,26 +6283,15 @@
         <v>389.0111</v>
       </c>
       <c r="G176" t="n">
-        <v>-1372069.3991</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J176" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6689,24 +6313,15 @@
         <v>30</v>
       </c>
       <c r="G177" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6728,26 +6343,15 @@
         <v>186</v>
       </c>
       <c r="G178" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6769,24 +6373,15 @@
         <v>55.67</v>
       </c>
       <c r="G179" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6808,24 +6403,15 @@
         <v>130</v>
       </c>
       <c r="G180" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6847,24 +6433,15 @@
         <v>56.5701</v>
       </c>
       <c r="G181" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6886,22 +6463,15 @@
         <v>31.6665</v>
       </c>
       <c r="G182" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6923,24 +6493,15 @@
         <v>128.8281</v>
       </c>
       <c r="G183" t="n">
-        <v>-1372099.3991</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
